--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -124,13 +124,16 @@
     <t>2019.5.17</t>
   </si>
   <si>
-    <t>王忠巧（未付）</t>
+    <t>王忠巧</t>
   </si>
   <si>
     <t>2019.6.14</t>
   </si>
   <si>
     <t>温朝喜住院支出</t>
+  </si>
+  <si>
+    <t>2019.7.02</t>
   </si>
 </sst>
 </file>
@@ -138,11 +141,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -170,7 +173,103 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,54 +283,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,75 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,61 +324,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,121 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,26 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,45 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +608,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1269,7 +1272,7 @@
         <v>735</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D6:D20" si="0">D5+B6-C6</f>
+        <f t="shared" ref="D6:D23" si="0">D5+B6-C6</f>
         <v>3886.8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1506,11 +1509,11 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D21" s="6">
-        <f>D20+B21-C21</f>
-        <v>4809.8</v>
+        <f t="shared" si="0"/>
+        <v>4749.8</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>36</v>
@@ -1525,19 +1528,28 @@
         <v>1000</v>
       </c>
       <c r="D22" s="6">
-        <f>D21+B22-C22</f>
-        <v>3809.8</v>
+        <f t="shared" si="0"/>
+        <v>3749.8</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:5">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="6">
+        <v>774</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>2975.8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:5">
       <c r="A24" s="5"/>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>2019.7.02</t>
+  </si>
+  <si>
+    <t>2019.7.28</t>
+  </si>
+  <si>
+    <t>退付远军</t>
   </si>
 </sst>
 </file>
@@ -141,11 +147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,14 +177,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -187,6 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -195,52 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,59 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -314,6 +273,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -324,19 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,163 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,17 +565,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,35 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -629,6 +609,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,9 +654,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1552,11 +1558,20 @@
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:5">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="6">
+        <v>2975.8</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D23+B24-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:5">
       <c r="A25" s="5"/>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -103,13 +103,10 @@
     <t>2018.12.8</t>
   </si>
   <si>
-    <t>雷天金</t>
+    <t>民政补贴</t>
   </si>
   <si>
     <t>2018.12.28</t>
-  </si>
-  <si>
-    <t>张后群</t>
   </si>
   <si>
     <t>2018.12.15</t>
@@ -148,10 +145,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -178,6 +175,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,7 +189,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,59 +218,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,47 +288,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,8 +565,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +590,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -637,17 +640,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,12 +886,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1183,12 +1175,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1278,7 +1270,7 @@
         <v>735</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D6:D23" si="0">D5+B6-C6</f>
+        <f t="shared" ref="D6:D24" si="0">D5+B6-C6</f>
         <v>3886.8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1474,12 +1466,12 @@
         <v>5678.8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -1495,7 +1487,7 @@
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -1506,12 +1498,12 @@
         <v>5109.8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -1522,12 +1514,12 @@
         <v>4749.8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -1538,12 +1530,12 @@
         <v>3749.8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -1559,18 +1551,18 @@
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
         <v>2975.8</v>
       </c>
       <c r="D24" s="6">
-        <f>D23+B24-C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:5">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -137,6 +138,246 @@
   </si>
   <si>
     <t>退付远军</t>
+  </si>
+  <si>
+    <t>流水账</t>
+  </si>
+  <si>
+    <t>2021.6.30</t>
+  </si>
+  <si>
+    <t>汪婷婷转入</t>
+  </si>
+  <si>
+    <t>2021.7.2</t>
+  </si>
+  <si>
+    <t>社区宽带费</t>
+  </si>
+  <si>
+    <t>2021.8.10</t>
+  </si>
+  <si>
+    <t>1.2季度党费</t>
+  </si>
+  <si>
+    <t>2021.9.1</t>
+  </si>
+  <si>
+    <t>购买饭票</t>
+  </si>
+  <si>
+    <t>防汛值班食品（雷兴山）</t>
+  </si>
+  <si>
+    <t>2021.9.7</t>
+  </si>
+  <si>
+    <t>陈阳安支取采购水杯等</t>
+  </si>
+  <si>
+    <t>2021.9.8</t>
+  </si>
+  <si>
+    <t>小段饮水机（陈阳安）</t>
+  </si>
+  <si>
+    <t>购买漏电保护器</t>
+  </si>
+  <si>
+    <t>2021.9.29</t>
+  </si>
+  <si>
+    <t>支付金昌和年初换届选举用凳子*（雷兴山）</t>
+  </si>
+  <si>
+    <t>2021.10.12</t>
+  </si>
+  <si>
+    <t>桶装水*2及押金</t>
+  </si>
+  <si>
+    <t>2021.10.20</t>
+  </si>
+  <si>
+    <t>人大选举付现金（陈阳安）</t>
+  </si>
+  <si>
+    <t>2021.11.3</t>
+  </si>
+  <si>
+    <t>购买饭票（部分公益岗用）</t>
+  </si>
+  <si>
+    <t>2021.11.22</t>
+  </si>
+  <si>
+    <t>付石经奎拉石灰钱（雷兴山）</t>
+  </si>
+  <si>
+    <t>2021.11.23</t>
+  </si>
+  <si>
+    <t>支付宝购买饭票（档案装订）</t>
+  </si>
+  <si>
+    <t>支付喻孝庆</t>
+  </si>
+  <si>
+    <t>2021.12.26</t>
+  </si>
+  <si>
+    <t>人大换届经费</t>
+  </si>
+  <si>
+    <t>报销宽带费用</t>
+  </si>
+  <si>
+    <t>金花转账（报销）</t>
+  </si>
+  <si>
+    <t>转账程昌斌（人大换届用）</t>
+  </si>
+  <si>
+    <t>代缴寇青发、寇山文、程孝国合疗</t>
+  </si>
+  <si>
+    <t>2021.12.27</t>
+  </si>
+  <si>
+    <t>代缴樊铷梅、李洛平合疗</t>
+  </si>
+  <si>
+    <t>2021.12.29</t>
+  </si>
+  <si>
+    <t>代缴吴坤、吴梓溢、吴曦合疗</t>
+  </si>
+  <si>
+    <t>2021.12.30</t>
+  </si>
+  <si>
+    <t>孙霞转入</t>
+  </si>
+  <si>
+    <t>2021.12.31</t>
+  </si>
+  <si>
+    <t>代缴梁善平合疗</t>
+  </si>
+  <si>
+    <t>2022.1.7</t>
+  </si>
+  <si>
+    <t>电费（）</t>
+  </si>
+  <si>
+    <t>吴曦合疗款</t>
+  </si>
+  <si>
+    <t>2022.1.9</t>
+  </si>
+  <si>
+    <t>购买硬盘</t>
+  </si>
+  <si>
+    <t>2022.1.18</t>
+  </si>
+  <si>
+    <t>付蒋永忠房租（陈阳安）</t>
+  </si>
+  <si>
+    <t>2022.1.21</t>
+  </si>
+  <si>
+    <t>2022.1.23</t>
+  </si>
+  <si>
+    <t>付金长安</t>
+  </si>
+  <si>
+    <t>付天云农家乐</t>
+  </si>
+  <si>
+    <t>好来聚餐饮费</t>
+  </si>
+  <si>
+    <t>2022.1.24</t>
+  </si>
+  <si>
+    <t>第一书记伙食费</t>
+  </si>
+  <si>
+    <t>第一书记、工作队经费</t>
+  </si>
+  <si>
+    <t>荣山酒店餐饮费</t>
+  </si>
+  <si>
+    <t>2022.1.26</t>
+  </si>
+  <si>
+    <t>孙义强（雷兴山）</t>
+  </si>
+  <si>
+    <t>2022.1.27</t>
+  </si>
+  <si>
+    <t>2021.1.27</t>
+  </si>
+  <si>
+    <t>付李道信电线钱（陈阳安）</t>
+  </si>
+  <si>
+    <t>付史国富车费</t>
+  </si>
+  <si>
+    <t>付金昌娥</t>
+  </si>
+  <si>
+    <t>2022.2.10</t>
+  </si>
+  <si>
+    <t>2022.2.15</t>
+  </si>
+  <si>
+    <t>元宵节支出（现金给陈支书）</t>
+  </si>
+  <si>
+    <t>2022.1.29</t>
+  </si>
+  <si>
+    <t>芊芊支取</t>
+  </si>
+  <si>
+    <t>2022.2.17</t>
+  </si>
+  <si>
+    <t>2022.2.25</t>
+  </si>
+  <si>
+    <t>张玉佐（雷兴山）</t>
+  </si>
+  <si>
+    <t>2022.3.3</t>
+  </si>
+  <si>
+    <t>2022.3.4</t>
+  </si>
+  <si>
+    <t>10（一次性水杯）</t>
+  </si>
+  <si>
+    <t>2022.3.20</t>
+  </si>
+  <si>
+    <t>饭票</t>
+  </si>
+  <si>
+    <t>2022.3.25</t>
+  </si>
+  <si>
+    <t>购买卫生纸</t>
   </si>
 </sst>
 </file>
@@ -144,13 +385,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -177,12 +418,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,14 +445,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +499,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,19 +512,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,21 +537,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -303,16 +558,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,13 +582,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +660,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,151 +714,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,35 +817,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +847,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,8 +874,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +890,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,137 +934,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,8 +1086,14 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -887,6 +1148,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1175,12 +1441,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1457,7 +1723,7 @@
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>1000</v>
       </c>
       <c r="C18" s="6"/>
@@ -1639,4 +1905,1043 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6">
+        <v>18000</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>800</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D4+B5-C5</f>
+        <v>17200</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>1065</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D6:D41" si="0">D5+B6-C6</f>
+        <v>16135</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>500</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>15635</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>165.3</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>15469.7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>13069.7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>12469.7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>12379.7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>500</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>11879.7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>11825.7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>10025.7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>500</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>9525.7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>9425.7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="6">
+        <v>500</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>8925.7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>8900.7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>12900.7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="6">
+        <v>800</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>13700.7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4450</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>18150.7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>16650.7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <f>3*320</f>
+        <v>960</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>15690.7</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <f>2*320</f>
+        <v>640</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>15050.7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <f>3*320</f>
+        <v>960</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>14090.7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1600</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>15690.7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" ht="21" customHeight="1" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>320</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>15370.7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
+        <v>500</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>14870.7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" ht="21" customHeight="1" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="6">
+        <v>320</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>15190.7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>195</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>14995.7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <v>500</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>14495.7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" ht="21" customHeight="1" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="6">
+        <v>5780</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>20275.7</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" ht="21" customHeight="1" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
+        <v>4135</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>16140.7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="21" customHeight="1" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6">
+        <v>1585</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>14555.7</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="21" customHeight="1" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6">
+        <v>2317</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
+        <v>12238.7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" ht="21" customHeight="1" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <v>1520</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>10718.7</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" ht="21" customHeight="1" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="6">
+        <v>19800</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>30518.7</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" ht="21" customHeight="1" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>10518.7</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" ht="21" customHeight="1" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6">
+        <v>200</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>10318.7</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" ht="21" customHeight="1" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="6">
+        <v>234</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>10552.7</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" ht="21" customHeight="1" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6">
+        <v>180</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>10372.7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" ht="21" customHeight="1" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <v>500</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" ref="D42:D53" si="1">D41+B42-C42</f>
+        <v>9872.7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" ht="21" customHeight="1" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6">
+        <v>600</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
+        <v>9272.7</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" ht="21" customHeight="1" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <v>500</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="1"/>
+        <v>8772.7</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" ht="21" customHeight="1" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
+        <v>6772.7</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" ht="21" customHeight="1" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="1"/>
+        <v>3772.7</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" ht="21" customHeight="1" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6">
+        <v>500</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="1"/>
+        <v>3272.7</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" ht="21" customHeight="1" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6">
+        <v>200</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>3072.7</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" ht="21" customHeight="1" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>2072.7</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" ht="21" customHeight="1" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>2062.7</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" ht="21" customHeight="1" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6">
+        <v>500</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>1562.7</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" ht="21" customHeight="1" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6">
+        <v>32</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" ref="D52:D64" si="2">D51+B52-C52</f>
+        <v>1530.7</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" ht="21" customHeight="1" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" ht="21" customHeight="1" spans="1:5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" ht="21" customHeight="1" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" ht="21" customHeight="1" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" ht="21" customHeight="1" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" ht="21" customHeight="1" spans="1:5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" ht="21" customHeight="1" spans="1:5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" ht="21" customHeight="1" spans="1:5">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" ht="21" customHeight="1" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" ht="21" customHeight="1" spans="1:5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" ht="21" customHeight="1" spans="1:5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" ht="21" customHeight="1" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6">
+        <f t="shared" si="2"/>
+        <v>1530.7</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" ht="21" customHeight="1" spans="1:5">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" ht="21" customHeight="1" spans="1:5">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" ht="21" customHeight="1" spans="1:5">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" ht="21" customHeight="1" spans="1:5">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" ht="21" customHeight="1" spans="1:5">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" ht="21" customHeight="1" spans="1:5">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" ht="21" customHeight="1" spans="1:5">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" ht="21" customHeight="1" spans="1:5">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <f>D51+B72-C72</f>
+        <v>1562.7</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.590277777777778" header="0.297916666666667" footer="0.297916666666667"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C24" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>购买卫生纸</t>
+  </si>
+  <si>
+    <t>2022.4.21</t>
   </si>
 </sst>
 </file>
@@ -385,11 +388,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -429,23 +432,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,18 +456,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,44 +492,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -535,16 +507,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,8 +547,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,187 +585,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,17 +820,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,7 +848,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,27 +872,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,6 +906,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -922,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,133 +937,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,7 +1918,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2643,13 +2646,15 @@
       <c r="A46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6">
+        <v>3000</v>
+      </c>
       <c r="C46" s="6">
         <v>3000</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="1"/>
-        <v>3772.7</v>
+        <v>6772.7</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>110</v>
@@ -2665,7 +2670,7 @@
       </c>
       <c r="D47" s="6">
         <f t="shared" si="1"/>
-        <v>3272.7</v>
+        <v>6272.7</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>49</v>
@@ -2681,7 +2686,7 @@
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>3072.7</v>
+        <v>6072.7</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>113</v>
@@ -2697,7 +2702,7 @@
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>2072.7</v>
+        <v>5072.7</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>84</v>
@@ -2713,7 +2718,7 @@
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>2062.7</v>
+        <v>5062.7</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>116</v>
@@ -2729,7 +2734,7 @@
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>1562.7</v>
+        <v>4562.7</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>118</v>
@@ -2745,21 +2750,27 @@
       </c>
       <c r="D52" s="6">
         <f t="shared" ref="D52:D64" si="2">D51+B52-C52</f>
-        <v>1530.7</v>
+        <v>4530.7</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="1:5">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="6">
+        <v>500</v>
+      </c>
       <c r="D53" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>4030.7</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:5">
       <c r="A54" s="5"/>
@@ -2767,7 +2778,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E54" s="5"/>
     </row>
@@ -2777,7 +2788,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E55" s="5"/>
     </row>
@@ -2787,7 +2798,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -2797,7 +2808,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E57" s="5"/>
     </row>
@@ -2807,7 +2818,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -2817,7 +2828,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E59" s="5"/>
     </row>
@@ -2827,7 +2838,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E60" s="5"/>
     </row>
@@ -2837,7 +2848,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E61" s="5"/>
     </row>
@@ -2847,7 +2858,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2857,7 +2868,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E63" s="5"/>
     </row>
@@ -2867,7 +2878,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6">
         <f t="shared" si="2"/>
-        <v>1530.7</v>
+        <v>4030.7</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -2926,7 +2937,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6">
         <f>D51+B72-C72</f>
-        <v>1562.7</v>
+        <v>4562.7</v>
       </c>
       <c r="E72" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -381,6 +381,18 @@
   </si>
   <si>
     <t>2022.4.21</t>
+  </si>
+  <si>
+    <t>2022.5.11</t>
+  </si>
+  <si>
+    <t>毕功喜、卜西萍 2*80</t>
+  </si>
+  <si>
+    <t>2022.5.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈树银挂横幅  付先锋 </t>
   </si>
 </sst>
 </file>
@@ -389,8 +401,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -432,16 +444,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +467,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -464,21 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,19 +488,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,15 +520,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,16 +572,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,14 +582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +597,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,13 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,13 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,55 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,49 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,15 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -849,21 +852,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,6 +880,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -907,13 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,145 +937,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1916,9 +1928,9 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2773,24 +2785,36 @@
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:5">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="6">
+        <v>160</v>
+      </c>
       <c r="D54" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
-      </c>
-      <c r="E54" s="5"/>
+        <v>3870.7</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:5">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="6">
+        <v>100</v>
+      </c>
       <c r="D55" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>3770.7</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:5">
       <c r="A56" s="5"/>
@@ -2798,7 +2822,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -2808,7 +2832,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E57" s="5"/>
     </row>
@@ -2818,7 +2842,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -2828,7 +2852,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E59" s="5"/>
     </row>
@@ -2838,7 +2862,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E60" s="5"/>
     </row>
@@ -2848,7 +2872,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E61" s="5"/>
     </row>
@@ -2858,7 +2882,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2868,7 +2892,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E63" s="5"/>
     </row>
@@ -2878,7 +2902,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>3770.7</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -2886,49 +2910,70 @@
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6">
+        <f t="shared" ref="D65:D72" si="3">D64+B65-C65</f>
+        <v>3770.7</v>
+      </c>
       <c r="E65" s="5"/>
     </row>
     <row r="66" ht="21" customHeight="1" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="6">
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
+      </c>
       <c r="E66" s="5"/>
     </row>
     <row r="67" ht="21" customHeight="1" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6">
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
+      </c>
       <c r="E67" s="5"/>
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:5">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6">
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
+      </c>
       <c r="E68" s="5"/>
     </row>
     <row r="69" ht="21" customHeight="1" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6">
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
+      </c>
       <c r="E69" s="5"/>
     </row>
     <row r="70" ht="21" customHeight="1" spans="1:5">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="6">
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
+      </c>
       <c r="E70" s="5"/>
     </row>
     <row r="71" ht="21" customHeight="1" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6">
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
+      </c>
       <c r="E71" s="5"/>
     </row>
     <row r="72" ht="21" customHeight="1" spans="1:5">
@@ -2936,8 +2981,8 @@
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6">
-        <f>D51+B72-C72</f>
-        <v>4562.7</v>
+        <f t="shared" si="3"/>
+        <v>3770.7</v>
       </c>
       <c r="E72" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t xml:space="preserve">陈树银挂横幅  付先锋 </t>
+  </si>
+  <si>
+    <t>2022.6.1</t>
+  </si>
+  <si>
+    <t>购买100张饭票</t>
+  </si>
+  <si>
+    <t>2022.6.8</t>
+  </si>
+  <si>
+    <t>制作横幅</t>
+  </si>
+  <si>
+    <t>2022.6.9</t>
+  </si>
+  <si>
+    <t>餐费</t>
   </si>
 </sst>
 </file>
@@ -401,8 +419,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -444,8 +462,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,9 +507,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,21 +554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,62 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,9 +583,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +592,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,13 +615,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,25 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,115 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,6 +850,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -843,24 +885,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,11 +906,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,8 +916,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,21 +947,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -937,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,133 +967,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1928,9 +1946,9 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2404,11 +2422,11 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>14995.7</v>
+        <v>14975.7</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>87</v>
@@ -2424,7 +2442,7 @@
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>14495.7</v>
+        <v>14475.7</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>89</v>
@@ -2440,7 +2458,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>20275.7</v>
+        <v>20255.7</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>43</v>
@@ -2456,7 +2474,7 @@
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>16140.7</v>
+        <v>16120.7</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>92</v>
@@ -2472,7 +2490,7 @@
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>14555.7</v>
+        <v>14535.7</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>93</v>
@@ -2488,7 +2506,7 @@
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>12238.7</v>
+        <v>12218.7</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>94</v>
@@ -2504,7 +2522,7 @@
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>10718.7</v>
+        <v>10698.7</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>96</v>
@@ -2520,7 +2538,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
-        <v>30518.7</v>
+        <v>30498.7</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>97</v>
@@ -2536,7 +2554,7 @@
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
-        <v>10518.7</v>
+        <v>10498.7</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>98</v>
@@ -2552,7 +2570,7 @@
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
-        <v>10318.7</v>
+        <v>10298.7</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>100</v>
@@ -2568,7 +2586,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v>10552.7</v>
+        <v>10532.7</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>43</v>
@@ -2584,7 +2602,7 @@
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
-        <v>10372.7</v>
+        <v>10352.7</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>103</v>
@@ -2600,7 +2618,7 @@
       </c>
       <c r="D42" s="6">
         <f t="shared" ref="D42:D53" si="1">D41+B42-C42</f>
-        <v>9872.7</v>
+        <v>9852.7</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>104</v>
@@ -2616,7 +2634,7 @@
       </c>
       <c r="D43" s="6">
         <f t="shared" si="1"/>
-        <v>9272.7</v>
+        <v>9252.7</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>105</v>
@@ -2632,7 +2650,7 @@
       </c>
       <c r="D44" s="6">
         <f t="shared" si="1"/>
-        <v>8772.7</v>
+        <v>8752.7</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>84</v>
@@ -2648,7 +2666,7 @@
       </c>
       <c r="D45" s="6">
         <f t="shared" si="1"/>
-        <v>6772.7</v>
+        <v>6752.7</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>108</v>
@@ -2666,7 +2684,7 @@
       </c>
       <c r="D46" s="6">
         <f t="shared" si="1"/>
-        <v>6772.7</v>
+        <v>6752.7</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>110</v>
@@ -2682,7 +2700,7 @@
       </c>
       <c r="D47" s="6">
         <f t="shared" si="1"/>
-        <v>6272.7</v>
+        <v>6252.7</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>49</v>
@@ -2698,7 +2716,7 @@
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>6072.7</v>
+        <v>6052.7</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>113</v>
@@ -2714,7 +2732,7 @@
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>5072.7</v>
+        <v>5052.7</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>84</v>
@@ -2730,7 +2748,7 @@
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>5062.7</v>
+        <v>5042.7</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>116</v>
@@ -2746,7 +2764,7 @@
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>4562.7</v>
+        <v>4542.7</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>118</v>
@@ -2762,7 +2780,7 @@
       </c>
       <c r="D52" s="6">
         <f t="shared" ref="D52:D64" si="2">D51+B52-C52</f>
-        <v>4530.7</v>
+        <v>4510.7</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>120</v>
@@ -2778,7 +2796,7 @@
       </c>
       <c r="D53" s="6">
         <f t="shared" si="2"/>
-        <v>4030.7</v>
+        <v>4010.7</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>118</v>
@@ -2794,7 +2812,7 @@
       </c>
       <c r="D54" s="6">
         <f t="shared" si="2"/>
-        <v>3870.7</v>
+        <v>3850.7</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>123</v>
@@ -2810,41 +2828,59 @@
       </c>
       <c r="D55" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3750.7</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:5">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="6">
+        <v>500</v>
+      </c>
       <c r="D56" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>3250.7</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:5">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="6">
+        <v>48</v>
+      </c>
       <c r="D57" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>3202.7</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:5">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="6">
+        <v>10</v>
+      </c>
       <c r="D58" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>3192.7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:5">
       <c r="A59" s="5"/>
@@ -2852,7 +2888,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E59" s="5"/>
     </row>
@@ -2862,7 +2898,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E60" s="5"/>
     </row>
@@ -2872,7 +2908,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E61" s="5"/>
     </row>
@@ -2882,7 +2918,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2892,7 +2928,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E63" s="5"/>
     </row>
@@ -2902,7 +2938,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6">
         <f t="shared" si="2"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -2912,7 +2948,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6">
         <f t="shared" ref="D65:D72" si="3">D64+B65-C65</f>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E65" s="5"/>
     </row>
@@ -2922,7 +2958,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E66" s="5"/>
     </row>
@@ -2932,7 +2968,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E67" s="5"/>
     </row>
@@ -2942,7 +2978,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E68" s="5"/>
     </row>
@@ -2952,7 +2988,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E69" s="5"/>
     </row>
@@ -2962,7 +2998,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E70" s="5"/>
     </row>
@@ -2972,7 +3008,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E71" s="5"/>
     </row>
@@ -2982,7 +3018,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>3770.7</v>
+        <v>3192.7</v>
       </c>
       <c r="E72" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>餐费</t>
+  </si>
+  <si>
+    <t>2022.7.7</t>
+  </si>
+  <si>
+    <t>2021.7.11</t>
+  </si>
+  <si>
+    <t>2021.7.18</t>
+  </si>
+  <si>
+    <t>购买100张饭票，微信付</t>
   </si>
 </sst>
 </file>
@@ -419,10 +431,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -462,19 +474,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,16 +491,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,10 +504,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,22 +527,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -554,22 +536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,6 +545,37 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +590,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +605,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,7 +627,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +663,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,163 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +866,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,21 +911,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -900,35 +921,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,6 +939,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -955,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,133 +979,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,9 +1958,9 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2883,34 +2895,50 @@
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:5">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="6">
+        <v>500</v>
+      </c>
       <c r="D59" s="6">
         <f t="shared" si="2"/>
-        <v>3192.7</v>
-      </c>
-      <c r="E59" s="5"/>
+        <v>2692.7</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:5">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1944</v>
+      </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6">
         <f t="shared" si="2"/>
-        <v>3192.7</v>
+        <v>4636.7</v>
       </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:5">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="6">
+        <v>500</v>
+      </c>
       <c r="D61" s="6">
         <f t="shared" si="2"/>
-        <v>3192.7</v>
-      </c>
-      <c r="E61" s="5"/>
+        <v>4136.7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:5">
       <c r="A62" s="5"/>
@@ -2918,7 +2946,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6">
         <f t="shared" si="2"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2928,7 +2956,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6">
         <f t="shared" si="2"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E63" s="5"/>
     </row>
@@ -2938,7 +2966,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6">
         <f t="shared" si="2"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -2948,7 +2976,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6">
         <f t="shared" ref="D65:D72" si="3">D64+B65-C65</f>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E65" s="5"/>
     </row>
@@ -2958,7 +2986,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E66" s="5"/>
     </row>
@@ -2968,7 +2996,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E67" s="5"/>
     </row>
@@ -2978,7 +3006,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E68" s="5"/>
     </row>
@@ -2988,7 +3016,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E69" s="5"/>
     </row>
@@ -2998,7 +3026,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E70" s="5"/>
     </row>
@@ -3008,7 +3036,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E71" s="5"/>
     </row>
@@ -3018,7 +3046,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>3192.7</v>
+        <v>4136.7</v>
       </c>
       <c r="E72" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -416,13 +416,64 @@
     <t>2022.7.7</t>
   </si>
   <si>
-    <t>2021.7.11</t>
-  </si>
-  <si>
-    <t>2021.7.18</t>
+    <t>2022.7.11</t>
+  </si>
+  <si>
+    <t>报销电费</t>
+  </si>
+  <si>
+    <t>2022.7.18</t>
   </si>
   <si>
     <t>购买100张饭票，微信付</t>
+  </si>
+  <si>
+    <t>2022.8.11</t>
+  </si>
+  <si>
+    <t>石本华、段召胜2*100 -雷兴山</t>
+  </si>
+  <si>
+    <t>购买瓶装水2*10</t>
+  </si>
+  <si>
+    <t>2022.8.12</t>
+  </si>
+  <si>
+    <t>5*6（刘珍主、喻孝庆、张波、邝有芳、雷天金）</t>
+  </si>
+  <si>
+    <t>2022.8.18</t>
+  </si>
+  <si>
+    <t>2022.8.24</t>
+  </si>
+  <si>
+    <t>（一次性水杯）*2+矿泉水*6</t>
+  </si>
+  <si>
+    <t>2022.8.30</t>
+  </si>
+  <si>
+    <t>桶装水*2</t>
+  </si>
+  <si>
+    <t>2022.9.7</t>
+  </si>
+  <si>
+    <t>付邝有芳</t>
+  </si>
+  <si>
+    <t>付雷天金</t>
+  </si>
+  <si>
+    <t>2022.9.14</t>
+  </si>
+  <si>
+    <t>电费</t>
+  </si>
+  <si>
+    <t>2022.9.27</t>
   </si>
 </sst>
 </file>
@@ -430,11 +481,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -474,9 +525,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,6 +543,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,10 +592,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,21 +605,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,31 +617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,14 +632,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,13 +668,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -627,7 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,25 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,13 +720,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,115 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,24 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -896,6 +929,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -906,21 +972,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,10 +1018,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,133 +1030,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1955,12 +2006,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2791,7 +2842,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" ref="D52:D64" si="2">D51+B52-C52</f>
+        <f t="shared" ref="D52:D67" si="2">D51+B52-C52</f>
         <v>4510.7</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2922,11 +2973,13 @@
         <f t="shared" si="2"/>
         <v>4636.7</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6">
@@ -2937,118 +2990,214 @@
         <v>4136.7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:5">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="6">
+        <v>200</v>
+      </c>
       <c r="D62" s="6">
         <f t="shared" si="2"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E62" s="5"/>
+        <v>3936.7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:5">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="6">
+        <v>20</v>
+      </c>
       <c r="D63" s="6">
         <f t="shared" si="2"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>3916.7</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="1:5">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="6">
+        <v>30</v>
+      </c>
       <c r="D64" s="6">
         <f t="shared" si="2"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>3886.7</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="1:5">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="6">
+        <v>500</v>
+      </c>
       <c r="D65" s="6">
-        <f t="shared" ref="D65:D72" si="3">D64+B65-C65</f>
-        <v>4136.7</v>
-      </c>
-      <c r="E65" s="5"/>
+        <f t="shared" si="2"/>
+        <v>3386.7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="1:5">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="6">
+        <v>23</v>
+      </c>
       <c r="D66" s="6">
-        <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E66" s="5"/>
+        <f t="shared" si="2"/>
+        <v>3363.7</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="1:5">
-      <c r="A67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="6">
+        <v>30</v>
+      </c>
       <c r="D67" s="6">
-        <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E67" s="5"/>
+        <f t="shared" si="2"/>
+        <v>3333.7</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:5">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="6">
+        <v>4700</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6">
-        <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E68" s="5"/>
+        <f t="shared" ref="D68:D75" si="3">D67+B68-C68</f>
+        <v>8033.7</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="1:5">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="6">
+        <v>2000</v>
+      </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>6033.7</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="1:5">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
+      <c r="C70" s="6">
+        <v>1200</v>
+      </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>4833.7</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="1:5">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="6">
+        <v>500</v>
+      </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>4333.7</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="1:5">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+      <c r="C72" s="6">
+        <v>500</v>
+      </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>4136.7</v>
-      </c>
-      <c r="E72" s="5"/>
+        <v>3833.7</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" ht="21" customHeight="1" spans="1:5">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6">
+        <f t="shared" si="3"/>
+        <v>3833.7</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" ht="21" customHeight="1" spans="1:5">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6">
+        <f t="shared" si="3"/>
+        <v>3833.7</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" ht="21" customHeight="1" spans="1:5">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6">
+        <f t="shared" si="3"/>
+        <v>3833.7</v>
+      </c>
+      <c r="E75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -474,6 +474,15 @@
   </si>
   <si>
     <t>2022.9.27</t>
+  </si>
+  <si>
+    <t>2022.10.5</t>
+  </si>
+  <si>
+    <t>2022.10.11</t>
+  </si>
+  <si>
+    <t>2022.10.12</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -525,9 +534,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,90 +634,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +648,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -646,24 +671,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +699,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,85 +843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,73 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,21 +923,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -939,24 +933,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,6 +952,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -987,6 +987,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,133 +1039,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2006,12 +2015,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3098,7 +3107,7 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6">
-        <f t="shared" ref="D68:D75" si="3">D67+B68-C68</f>
+        <f>D67+B68-C68</f>
         <v>8033.7</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -3114,7 +3123,7 @@
         <v>2000</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="3"/>
+        <f>D68+B69-C69</f>
         <v>6033.7</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -3130,7 +3139,7 @@
         <v>1200</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="3"/>
+        <f>D69+B70-C70</f>
         <v>4833.7</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -3146,7 +3155,7 @@
         <v>500</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="3"/>
+        <f>D70+B71-C71</f>
         <v>4333.7</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -3162,7 +3171,7 @@
         <v>500</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="3"/>
+        <f>D71+B72-C72</f>
         <v>3833.7</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -3170,34 +3179,56 @@
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="1:5">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="6">
+        <v>1000</v>
+      </c>
       <c r="D73" s="6">
-        <f t="shared" si="3"/>
-        <v>3833.7</v>
+        <f>D72+B73-C73</f>
+        <v>2833.7</v>
       </c>
       <c r="E73" s="5"/>
     </row>
     <row r="74" ht="21" customHeight="1" spans="1:5">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="6">
+        <v>30</v>
+      </c>
       <c r="D74" s="6">
-        <f t="shared" si="3"/>
-        <v>3833.7</v>
+        <f>D73+B74-C74</f>
+        <v>2803.7</v>
       </c>
       <c r="E74" s="5"/>
     </row>
     <row r="75" ht="21" customHeight="1" spans="1:5">
-      <c r="A75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="6">
+        <v>48</v>
+      </c>
       <c r="D75" s="6">
-        <f t="shared" si="3"/>
-        <v>3833.7</v>
+        <f>D74+B75-C75</f>
+        <v>2755.7</v>
       </c>
       <c r="E75" s="5"/>
+    </row>
+    <row r="76" ht="21" customHeight="1" spans="1:5">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6">
+        <f>D75+B76-C76</f>
+        <v>2755.7</v>
+      </c>
+      <c r="E76" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -479,10 +479,16 @@
     <t>2022.10.5</t>
   </si>
   <si>
+    <t>付先锋修打印机</t>
+  </si>
+  <si>
     <t>2022.10.11</t>
   </si>
   <si>
     <t>2022.10.12</t>
+  </si>
+  <si>
+    <t>中心社区六期购买方便面（疫情值守）</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -534,77 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,9 +562,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,30 +672,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,7 +693,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,133 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +928,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -937,16 +952,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -976,26 +991,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,17 +1025,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1027,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,133 +1045,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2020,7 +2026,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2851,7 +2857,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" ref="D52:D67" si="2">D51+B52-C52</f>
+        <f t="shared" ref="D52:D76" si="2">D51+B52-C52</f>
         <v>4510.7</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -3107,7 +3113,7 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6">
-        <f>D67+B68-C68</f>
+        <f t="shared" si="2"/>
         <v>8033.7</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -3123,7 +3129,7 @@
         <v>2000</v>
       </c>
       <c r="D69" s="6">
-        <f>D68+B69-C69</f>
+        <f t="shared" si="2"/>
         <v>6033.7</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -3139,7 +3145,7 @@
         <v>1200</v>
       </c>
       <c r="D70" s="6">
-        <f>D69+B70-C70</f>
+        <f t="shared" si="2"/>
         <v>4833.7</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -3155,7 +3161,7 @@
         <v>500</v>
       </c>
       <c r="D71" s="6">
-        <f>D70+B71-C71</f>
+        <f t="shared" si="2"/>
         <v>4333.7</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -3171,7 +3177,7 @@
         <v>500</v>
       </c>
       <c r="D72" s="6">
-        <f>D71+B72-C72</f>
+        <f t="shared" si="2"/>
         <v>3833.7</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -3187,45 +3193,51 @@
         <v>1000</v>
       </c>
       <c r="D73" s="6">
-        <f>D72+B73-C73</f>
+        <f t="shared" si="2"/>
         <v>2833.7</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6">
         <v>30</v>
       </c>
       <c r="D74" s="6">
-        <f>D73+B74-C74</f>
+        <f t="shared" si="2"/>
         <v>2803.7</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6">
         <v>48</v>
       </c>
       <c r="D75" s="6">
-        <f>D74+B75-C75</f>
+        <f t="shared" si="2"/>
         <v>2755.7</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="1:5">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6">
-        <f>D75+B76-C76</f>
+        <f t="shared" si="2"/>
         <v>2755.7</v>
       </c>
       <c r="E76" s="5"/>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>中心社区六期购买方便面（疫情值守）</t>
+  </si>
+  <si>
+    <t>2022.10.18</t>
+  </si>
+  <si>
+    <t>桶装水4</t>
+  </si>
+  <si>
+    <t>文化站电费</t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -540,46 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,6 +573,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -616,8 +609,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,15 +619,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,14 +655,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -670,8 +678,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +702,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +822,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,139 +876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,56 +961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1025,6 +984,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,10 +1042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,133 +1054,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2021,12 +2030,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3233,14 +3242,130 @@
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="1:5">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="6">
+        <v>50</v>
+      </c>
       <c r="D76" s="6">
-        <f t="shared" si="2"/>
-        <v>2755.7</v>
-      </c>
-      <c r="E76" s="5"/>
+        <f t="shared" ref="D76:D86" si="3">D75+B76-C76</f>
+        <v>2705.7</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" ht="21" customHeight="1" spans="1:5">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6">
+        <v>30</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" si="3"/>
+        <v>2675.7</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" ht="21" customHeight="1" spans="1:5">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="3"/>
+        <v>1675.7</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" ht="21" customHeight="1" spans="1:5">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6">
+        <v>500</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" ht="21" customHeight="1" spans="1:5">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" ht="21" customHeight="1" spans="1:5">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" ht="21" customHeight="1" spans="1:5">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" ht="21" customHeight="1" spans="1:5">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" ht="21" customHeight="1" spans="1:5">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" ht="21" customHeight="1" spans="1:5">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" ht="21" customHeight="1" spans="1:5">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6">
+        <f t="shared" si="3"/>
+        <v>1175.7</v>
+      </c>
+      <c r="E86" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -482,7 +482,7 @@
     <t>付先锋修打印机</t>
   </si>
   <si>
-    <t>2022.10.11</t>
+    <t>2022.10.10</t>
   </si>
   <si>
     <t>2022.10.12</t>
@@ -497,7 +497,37 @@
     <t>桶装水4</t>
   </si>
   <si>
+    <t>2022.11.7</t>
+  </si>
+  <si>
+    <t>2022.11.10</t>
+  </si>
+  <si>
+    <t>2022.11.11</t>
+  </si>
+  <si>
     <t>文化站电费</t>
+  </si>
+  <si>
+    <t>2022.11.24</t>
+  </si>
+  <si>
+    <t>购买一次性水杯2袋</t>
+  </si>
+  <si>
+    <t>2022.10.</t>
+  </si>
+  <si>
+    <t>陈支书拿（未给钱）</t>
+  </si>
+  <si>
+    <t>2022.11.</t>
+  </si>
+  <si>
+    <t>刘支书拿（未给钱）</t>
+  </si>
+  <si>
+    <t>付李建芳餐费（老街撤离人员）</t>
   </si>
 </sst>
 </file>
@@ -505,8 +535,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
@@ -549,25 +579,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,10 +622,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,7 +639,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,8 +661,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,6 +679,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,32 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,7 +732,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,175 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,6 +970,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -961,26 +1000,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,13 +1050,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,10 +1072,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,133 +1084,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2033,9 +2063,9 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3258,7 +3288,9 @@
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="1:5">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6">
         <v>30</v>
@@ -3267,10 +3299,14 @@
         <f t="shared" si="3"/>
         <v>2675.7</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="1:5">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6">
         <v>1000</v>
@@ -3284,7 +3320,9 @@
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="1:5">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6">
         <v>500</v>
@@ -3294,48 +3332,72 @@
         <v>1175.7</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="1:5">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="C80" s="6">
+        <v>10</v>
+      </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
-      </c>
-      <c r="E80" s="5"/>
+        <v>1165.7</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="1:5">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="6">
+        <v>500</v>
+      </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
-      </c>
-      <c r="E81" s="5"/>
+        <v>665.7</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="1:5">
-      <c r="A82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="6">
+        <v>500</v>
+      </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
-      </c>
-      <c r="E82" s="5"/>
+        <v>165.7</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="1:5">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="6">
+        <v>64</v>
+      </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
-      </c>
-      <c r="E83" s="5"/>
+        <v>101.7</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="1:5">
       <c r="A84" s="5"/>
@@ -3343,7 +3405,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
+        <v>101.7</v>
       </c>
       <c r="E84" s="5"/>
     </row>
@@ -3353,7 +3415,7 @@
       <c r="C85" s="6"/>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
+        <v>101.7</v>
       </c>
       <c r="E85" s="5"/>
     </row>
@@ -3363,7 +3425,7 @@
       <c r="C86" s="6"/>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
-        <v>1175.7</v>
+        <v>101.7</v>
       </c>
       <c r="E86" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$98</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -528,6 +531,60 @@
   </si>
   <si>
     <t>付李建芳餐费（老街撤离人员）</t>
+  </si>
+  <si>
+    <t>2022.11.28</t>
+  </si>
+  <si>
+    <t>电费（文化综合服务站）</t>
+  </si>
+  <si>
+    <t>2022.12.</t>
+  </si>
+  <si>
+    <t>雷天金拿（未给钱）</t>
+  </si>
+  <si>
+    <t>三星ssd</t>
+  </si>
+  <si>
+    <t>2022.12.1</t>
+  </si>
+  <si>
+    <t>桶装水*4</t>
+  </si>
+  <si>
+    <t>金士顿内存条</t>
+  </si>
+  <si>
+    <t>2022.12.13</t>
+  </si>
+  <si>
+    <t>主机电源</t>
+  </si>
+  <si>
+    <t>2022.12.17</t>
+  </si>
+  <si>
+    <t>机箱转接线</t>
+  </si>
+  <si>
+    <t>2022.12.20</t>
+  </si>
+  <si>
+    <t>主板+CPU</t>
+  </si>
+  <si>
+    <t>2022.12.23</t>
+  </si>
+  <si>
+    <t>键盘*2+鼠标*1</t>
+  </si>
+  <si>
+    <t>2023.1.6</t>
+  </si>
+  <si>
+    <t>火炮（元宵节付先丰经手购买）</t>
   </si>
 </sst>
 </file>
@@ -535,11 +592,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -580,21 +637,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,22 +666,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +681,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,16 +726,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +750,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -717,7 +774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +789,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +825,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,67 +909,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,19 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,55 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,8 +1027,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,6 +1067,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1000,56 +1098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1064,6 +1112,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1072,10 +1129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,133 +1141,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2060,15 +2117,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -3143,7 +3200,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" ht="21" customHeight="1" spans="1:5">
+    <row r="68" ht="21" customHeight="1" spans="1:9">
       <c r="A68" s="5" t="s">
         <v>147</v>
       </c>
@@ -3158,8 +3215,17 @@
       <c r="E68" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" ht="21" customHeight="1" spans="1:5">
+      <c r="F68">
+        <v>4700</v>
+      </c>
+      <c r="H68">
+        <v>8033.7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" ht="21" customHeight="1" spans="1:9">
       <c r="A69" s="5" t="s">
         <v>147</v>
       </c>
@@ -3174,8 +3240,17 @@
       <c r="E69" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" ht="21" customHeight="1" spans="1:5">
+      <c r="G69">
+        <v>2000</v>
+      </c>
+      <c r="H69">
+        <v>6033.7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" ht="21" customHeight="1" spans="1:9">
       <c r="A70" s="5" t="s">
         <v>147</v>
       </c>
@@ -3190,8 +3265,17 @@
       <c r="E70" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="71" ht="21" customHeight="1" spans="1:5">
+      <c r="G70">
+        <v>1200</v>
+      </c>
+      <c r="H70">
+        <v>4833.7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" ht="21" customHeight="1" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>150</v>
       </c>
@@ -3206,8 +3290,17 @@
       <c r="E71" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="72" ht="21" customHeight="1" spans="1:5">
+      <c r="G71">
+        <v>500</v>
+      </c>
+      <c r="H71">
+        <v>4333.7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" ht="21" customHeight="1" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>152</v>
       </c>
@@ -3222,8 +3315,17 @@
       <c r="E72" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="73" ht="21" customHeight="1" spans="1:5">
+      <c r="G72">
+        <v>500</v>
+      </c>
+      <c r="H72">
+        <v>3833.7</v>
+      </c>
+      <c r="I72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" ht="21" customHeight="1" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>153</v>
       </c>
@@ -3238,8 +3340,17 @@
       <c r="E73" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="74" ht="21" customHeight="1" spans="1:5">
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>2833.7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" ht="21" customHeight="1" spans="1:9">
       <c r="A74" s="5" t="s">
         <v>155</v>
       </c>
@@ -3254,8 +3365,17 @@
       <c r="E74" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" ht="21" customHeight="1" spans="1:5">
+      <c r="G74">
+        <v>30</v>
+      </c>
+      <c r="H74">
+        <v>2803.7</v>
+      </c>
+      <c r="I74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" ht="21" customHeight="1" spans="1:9">
       <c r="A75" s="5" t="s">
         <v>156</v>
       </c>
@@ -3270,8 +3390,17 @@
       <c r="E75" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" ht="21" customHeight="1" spans="1:5">
+      <c r="G75">
+        <v>48</v>
+      </c>
+      <c r="H75">
+        <v>2755.7</v>
+      </c>
+      <c r="I75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" ht="21" customHeight="1" spans="1:9">
       <c r="A76" s="5" t="s">
         <v>158</v>
       </c>
@@ -3286,8 +3415,17 @@
       <c r="E76" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="77" ht="21" customHeight="1" spans="1:5">
+      <c r="G76">
+        <v>50</v>
+      </c>
+      <c r="H76">
+        <v>2705.7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" ht="21" customHeight="1" spans="1:9">
       <c r="A77" s="5" t="s">
         <v>160</v>
       </c>
@@ -3302,8 +3440,17 @@
       <c r="E77" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" ht="21" customHeight="1" spans="1:5">
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77">
+        <v>2675.7</v>
+      </c>
+      <c r="I77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" ht="21" customHeight="1" spans="1:9">
       <c r="A78" s="5" t="s">
         <v>161</v>
       </c>
@@ -3318,8 +3465,17 @@
       <c r="E78" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="79" ht="21" customHeight="1" spans="1:5">
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>1675.7</v>
+      </c>
+      <c r="I78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" ht="21" customHeight="1" spans="1:9">
       <c r="A79" s="5" t="s">
         <v>162</v>
       </c>
@@ -3334,8 +3490,17 @@
       <c r="E79" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="80" ht="21" customHeight="1" spans="1:5">
+      <c r="G79">
+        <v>500</v>
+      </c>
+      <c r="H79">
+        <v>1175.7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" ht="21" customHeight="1" spans="1:9">
       <c r="A80" s="5" t="s">
         <v>164</v>
       </c>
@@ -3350,40 +3515,77 @@
       <c r="E80" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="81" ht="21" customHeight="1" spans="1:5">
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>1165.7</v>
+      </c>
+      <c r="I80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" ht="21" customHeight="1" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="6">
+        <v>500</v>
+      </c>
       <c r="C81" s="6">
         <v>500</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
-        <v>665.7</v>
+        <v>1165.7</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="82" ht="21" customHeight="1" spans="1:5">
+      <c r="F81">
+        <v>500</v>
+      </c>
+      <c r="G81">
+        <v>500</v>
+      </c>
+      <c r="H81">
+        <v>1165.7</v>
+      </c>
+      <c r="I81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" ht="21" customHeight="1" spans="1:9">
       <c r="A82" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="6">
+        <v>500</v>
+      </c>
       <c r="C82" s="6">
         <v>500</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
-        <v>165.7</v>
+        <v>1165.7</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="83" ht="21" customHeight="1" spans="1:5">
+      <c r="F82">
+        <v>500</v>
+      </c>
+      <c r="G82">
+        <v>500</v>
+      </c>
+      <c r="H82">
+        <v>1165.7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" ht="21" customHeight="1" spans="1:9">
       <c r="A83" s="5" t="s">
         <v>164</v>
       </c>
@@ -3393,41 +3595,295 @@
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
-        <v>101.7</v>
+        <v>1101.7</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="84" ht="21" customHeight="1" spans="1:5">
-      <c r="A84" s="5"/>
+      <c r="G83">
+        <v>64</v>
+      </c>
+      <c r="H83">
+        <v>1101.7</v>
+      </c>
+      <c r="I83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" ht="21" customHeight="1" spans="1:9">
+      <c r="A84" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="6">
+        <v>500</v>
+      </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
-        <v>101.7</v>
-      </c>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" ht="21" customHeight="1" spans="1:5">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+        <v>601.7</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84">
+        <v>500</v>
+      </c>
+      <c r="H84">
+        <v>601.7</v>
+      </c>
+      <c r="I84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" ht="21" customHeight="1" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="6">
+        <v>500</v>
+      </c>
+      <c r="C85" s="6">
+        <v>500</v>
+      </c>
       <c r="D85" s="6">
-        <f t="shared" si="3"/>
-        <v>101.7</v>
-      </c>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" ht="21" customHeight="1" spans="1:5">
-      <c r="A86" s="5"/>
+        <f t="shared" ref="D85:D98" si="4">D84+B85-C85</f>
+        <v>601.7</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85">
+        <v>299</v>
+      </c>
+      <c r="H85">
+        <v>302.7</v>
+      </c>
+      <c r="I85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" ht="21" customHeight="1" spans="1:9">
+      <c r="A86" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="6">
+        <v>60</v>
+      </c>
       <c r="D86" s="6">
-        <f t="shared" si="3"/>
-        <v>101.7</v>
-      </c>
-      <c r="E86" s="5"/>
+        <f t="shared" si="4"/>
+        <v>541.7</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86">
+        <v>195</v>
+      </c>
+      <c r="H86">
+        <v>107.7</v>
+      </c>
+      <c r="I86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" ht="21" customHeight="1" spans="1:9">
+      <c r="A87" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6">
+        <v>30</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="4"/>
+        <v>511.7</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87">
+        <v>132</v>
+      </c>
+      <c r="H87">
+        <v>-24.3000000000002</v>
+      </c>
+      <c r="I87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" ht="21" customHeight="1" spans="1:9">
+      <c r="A88" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6">
+        <v>500</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="4"/>
+        <v>11.7</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88">
+        <v>20</v>
+      </c>
+      <c r="H88">
+        <v>-44.3000000000002</v>
+      </c>
+      <c r="I88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" ht="21" customHeight="1" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6">
+        <v>30</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="4"/>
+        <v>-18.3</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89">
+        <v>1549</v>
+      </c>
+      <c r="H89">
+        <v>-1593.3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" ht="21" customHeight="1" spans="1:9">
+      <c r="A90" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="6">
+        <v>3445</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6">
+        <f t="shared" si="4"/>
+        <v>3426.7</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90">
+        <v>83</v>
+      </c>
+      <c r="H90">
+        <v>-1676.3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" ht="21" customHeight="1" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6">
+        <v>500</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="4"/>
+        <v>2926.7</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" ht="21" customHeight="1" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6">
+        <v>500</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="4"/>
+        <v>2426.7</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" ht="21" customHeight="1" spans="1:5">
+      <c r="A93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6">
+        <v>30</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="4"/>
+        <v>2396.7</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" ht="21" customHeight="1" spans="1:5">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6">
+        <f t="shared" si="4"/>
+        <v>2396.7</v>
+      </c>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" ht="21" customHeight="1" spans="1:5">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6">
+        <f t="shared" si="4"/>
+        <v>2396.7</v>
+      </c>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" ht="21" customHeight="1" spans="1:5">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6">
+        <f t="shared" si="4"/>
+        <v>2396.7</v>
+      </c>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" ht="21" customHeight="1" spans="1:5">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6">
+        <f t="shared" si="4"/>
+        <v>2396.7</v>
+      </c>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" ht="21" customHeight="1" spans="1:5">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6">
+        <f t="shared" si="4"/>
+        <v>2396.7</v>
+      </c>
+      <c r="E98" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$119</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -585,6 +585,48 @@
   </si>
   <si>
     <t>火炮（元宵节付先丰经手购买）</t>
+  </si>
+  <si>
+    <t>2023.1.10</t>
+  </si>
+  <si>
+    <t>唐家拿东西费用（雷兴山）</t>
+  </si>
+  <si>
+    <t>2023.1.12</t>
+  </si>
+  <si>
+    <t>村广播电费</t>
+  </si>
+  <si>
+    <t>2023.1.13</t>
+  </si>
+  <si>
+    <t>经费</t>
+  </si>
+  <si>
+    <t>（劳务）张后群</t>
+  </si>
+  <si>
+    <t>2022.1.13</t>
+  </si>
+  <si>
+    <t>荣山酒店餐饮接待费</t>
+  </si>
+  <si>
+    <t>2023.1.16</t>
+  </si>
+  <si>
+    <t>谢作鹏饭票</t>
+  </si>
+  <si>
+    <t>2023.1.18</t>
+  </si>
+  <si>
+    <t>付石先申接送接种疫苗车费</t>
+  </si>
+  <si>
+    <t>2023.1.19</t>
   </si>
 </sst>
 </file>
@@ -592,10 +634,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -637,14 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,31 +707,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,9 +754,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,31 +799,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +831,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,31 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,37 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,73 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,19 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,8 +1069,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,15 +1155,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1082,45 +1163,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1129,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,133 +1183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2117,12 +2159,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3836,54 +3878,314 @@
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="1:5">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="6">
+        <v>500</v>
+      </c>
       <c r="D94" s="6">
-        <f t="shared" si="4"/>
-        <v>2396.7</v>
-      </c>
-      <c r="E94" s="5"/>
+        <f t="shared" ref="D94:D119" si="5">D93+B94-C94</f>
+        <v>1896.7</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="1:5">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="6">
+        <v>50</v>
+      </c>
       <c r="D95" s="6">
-        <f t="shared" si="4"/>
-        <v>2396.7</v>
-      </c>
-      <c r="E95" s="5"/>
+        <f t="shared" si="5"/>
+        <v>1846.7</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="1:5">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="6">
+        <v>34000</v>
+      </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6">
-        <f t="shared" si="4"/>
-        <v>2396.7</v>
-      </c>
-      <c r="E96" s="5"/>
+        <f t="shared" si="5"/>
+        <v>35846.7</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="1:5">
-      <c r="A97" s="5"/>
+      <c r="A97" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="6">
+        <v>900</v>
+      </c>
       <c r="D97" s="6">
-        <f t="shared" si="4"/>
-        <v>2396.7</v>
-      </c>
-      <c r="E97" s="5"/>
+        <f t="shared" si="5"/>
+        <v>34946.7</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="1:5">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="6">
+        <v>20000</v>
+      </c>
       <c r="D98" s="6">
-        <f t="shared" si="4"/>
-        <v>2396.7</v>
-      </c>
-      <c r="E98" s="5"/>
+        <f t="shared" si="5"/>
+        <v>14946.7</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" ht="21" customHeight="1" spans="1:5">
+      <c r="A99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="5"/>
+        <v>13446.7</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" ht="21" customHeight="1" spans="1:5">
+      <c r="A100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6">
+        <v>1763</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="5"/>
+        <v>11683.7</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" ht="21" customHeight="1" spans="1:5">
+      <c r="A101" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6">
+        <v>1780</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" ht="21" customHeight="1" spans="1:5">
+      <c r="A102" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" ht="21" customHeight="1" spans="1:5">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" ht="21" customHeight="1" spans="1:5">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" ht="21" customHeight="1" spans="1:5">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" ht="21" customHeight="1" spans="1:5">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" ht="21" customHeight="1" spans="1:5">
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" ht="21" customHeight="1" spans="1:5">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" ht="21" customHeight="1" spans="1:5">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" ht="21" customHeight="1" spans="1:5">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" ht="21" customHeight="1" spans="1:5">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" ht="21" customHeight="1" spans="1:5">
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" ht="21" customHeight="1" spans="1:5">
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" ht="21" customHeight="1" spans="1:5">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" ht="21" customHeight="1" spans="1:5">
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" ht="21" customHeight="1" spans="1:5">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" ht="21" customHeight="1" spans="1:5">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" ht="21" customHeight="1" spans="1:5">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" ht="21" customHeight="1" spans="1:5">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6">
+        <f t="shared" si="5"/>
+        <v>9903.7</v>
+      </c>
+      <c r="E119" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$120</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -608,12 +608,12 @@
     <t>（劳务）张后群</t>
   </si>
   <si>
-    <t>2022.1.13</t>
-  </si>
-  <si>
     <t>荣山酒店餐饮接待费</t>
   </si>
   <si>
+    <t>2023.1.15</t>
+  </si>
+  <si>
     <t>2023.1.16</t>
   </si>
   <si>
@@ -627,6 +627,21 @@
   </si>
   <si>
     <t>2023.1.19</t>
+  </si>
+  <si>
+    <t>付罗词明车费</t>
+  </si>
+  <si>
+    <t>2023.1.29</t>
+  </si>
+  <si>
+    <t>礼炮</t>
+  </si>
+  <si>
+    <t>2023.1.31</t>
+  </si>
+  <si>
+    <t>接舞狮</t>
   </si>
 </sst>
 </file>
@@ -636,9 +651,9 @@
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -679,7 +694,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +731,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,21 +777,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +792,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,16 +814,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +823,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +846,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +948,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,31 +984,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,103 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,15 +1084,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1085,16 +1091,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,17 +1129,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,17 +1178,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1171,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1198,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2159,12 +2174,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3886,7 +3901,7 @@
         <v>500</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" ref="D94:D119" si="5">D93+B94-C94</f>
+        <f t="shared" si="4"/>
         <v>1896.7</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -3902,7 +3917,7 @@
         <v>50</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1846.7</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -3918,7 +3933,7 @@
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35846.7</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -3934,7 +3949,7 @@
         <v>900</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34946.7</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -3943,34 +3958,34 @@
     </row>
     <row r="98" ht="21" customHeight="1" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6">
         <v>20000</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14946.7</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="1:5">
       <c r="A99" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6">
-        <v>1500</v>
+        <v>843</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="5"/>
-        <v>13446.7</v>
+        <f t="shared" ref="D99:D120" si="5">D98+B99-C99</f>
+        <v>14103.7</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="1:5">
@@ -3979,73 +3994,95 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6">
-        <v>1763</v>
+        <v>1500</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="5"/>
-        <v>11683.7</v>
+        <v>12603.7</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="1:5">
       <c r="A101" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6">
-        <v>1780</v>
+        <v>1563</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>11040.7</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="1:5">
       <c r="A102" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="6">
+        <v>1780</v>
+      </c>
       <c r="D102" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
-      </c>
-      <c r="E102" s="5"/>
+        <v>9260.7</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="1:5">
-      <c r="A103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="6">
+        <v>990</v>
+      </c>
       <c r="D103" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
-      </c>
-      <c r="E103" s="5"/>
+        <v>8270.7</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="1:5">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="6">
+        <v>200</v>
+      </c>
       <c r="D104" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
-      </c>
-      <c r="E104" s="5"/>
+        <v>8070.7</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="1:5">
-      <c r="A105" s="5"/>
+      <c r="A105" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+      <c r="C105" s="6">
+        <v>1000</v>
+      </c>
       <c r="D105" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
-      </c>
-      <c r="E105" s="5"/>
+        <v>7070.7</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:5">
       <c r="A106" s="5"/>
@@ -4053,7 +4090,7 @@
       <c r="C106" s="6"/>
       <c r="D106" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E106" s="5"/>
     </row>
@@ -4063,7 +4100,7 @@
       <c r="C107" s="6"/>
       <c r="D107" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E107" s="5"/>
     </row>
@@ -4073,7 +4110,7 @@
       <c r="C108" s="6"/>
       <c r="D108" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E108" s="5"/>
     </row>
@@ -4083,7 +4120,7 @@
       <c r="C109" s="6"/>
       <c r="D109" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E109" s="5"/>
     </row>
@@ -4093,7 +4130,7 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E110" s="5"/>
     </row>
@@ -4103,7 +4140,7 @@
       <c r="C111" s="6"/>
       <c r="D111" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E111" s="5"/>
     </row>
@@ -4113,7 +4150,7 @@
       <c r="C112" s="6"/>
       <c r="D112" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E112" s="5"/>
     </row>
@@ -4123,7 +4160,7 @@
       <c r="C113" s="6"/>
       <c r="D113" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E113" s="5"/>
     </row>
@@ -4133,7 +4170,7 @@
       <c r="C114" s="6"/>
       <c r="D114" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E114" s="5"/>
     </row>
@@ -4143,7 +4180,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E115" s="5"/>
     </row>
@@ -4153,7 +4190,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E116" s="5"/>
     </row>
@@ -4163,7 +4200,7 @@
       <c r="C117" s="6"/>
       <c r="D117" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E117" s="5"/>
     </row>
@@ -4173,7 +4210,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E118" s="5"/>
     </row>
@@ -4183,9 +4220,19 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6">
         <f t="shared" si="5"/>
-        <v>9903.7</v>
+        <v>7070.7</v>
       </c>
       <c r="E119" s="5"/>
+    </row>
+    <row r="120" ht="21" customHeight="1" spans="1:5">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6">
+        <f t="shared" si="5"/>
+        <v>7070.7</v>
+      </c>
+      <c r="E120" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -642,6 +642,15 @@
   </si>
   <si>
     <t>接舞狮</t>
+  </si>
+  <si>
+    <t>2023.2.7</t>
+  </si>
+  <si>
+    <t>2023.2.9</t>
+  </si>
+  <si>
+    <t>2023.2.14</t>
   </si>
 </sst>
 </file>
@@ -649,11 +658,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -694,13 +703,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -708,10 +710,63 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,8 +777,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +802,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,87 +839,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -846,7 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,19 +885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,31 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +927,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,19 +987,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,73 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,9 +1092,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,46 +1125,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1149,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1178,6 +1178,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1186,10 +1195,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,16 +1207,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,115 +1225,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2179,7 +2188,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4085,32 +4094,44 @@
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:5">
-      <c r="A106" s="5"/>
+      <c r="A106" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="6">
+        <v>30</v>
+      </c>
       <c r="D106" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>7040.7</v>
       </c>
       <c r="E106" s="5"/>
     </row>
     <row r="107" ht="21" customHeight="1" spans="1:5">
-      <c r="A107" s="5"/>
+      <c r="A107" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="6">
+        <v>1000</v>
+      </c>
       <c r="D107" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>6040.7</v>
       </c>
       <c r="E107" s="5"/>
     </row>
     <row r="108" ht="21" customHeight="1" spans="1:5">
-      <c r="A108" s="5"/>
+      <c r="A108" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="6">
+        <v>800</v>
+      </c>
       <c r="D108" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E108" s="5"/>
     </row>
@@ -4120,7 +4141,7 @@
       <c r="C109" s="6"/>
       <c r="D109" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E109" s="5"/>
     </row>
@@ -4130,7 +4151,7 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E110" s="5"/>
     </row>
@@ -4140,7 +4161,7 @@
       <c r="C111" s="6"/>
       <c r="D111" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E111" s="5"/>
     </row>
@@ -4150,7 +4171,7 @@
       <c r="C112" s="6"/>
       <c r="D112" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E112" s="5"/>
     </row>
@@ -4160,7 +4181,7 @@
       <c r="C113" s="6"/>
       <c r="D113" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E113" s="5"/>
     </row>
@@ -4170,7 +4191,7 @@
       <c r="C114" s="6"/>
       <c r="D114" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E114" s="5"/>
     </row>
@@ -4180,7 +4201,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E115" s="5"/>
     </row>
@@ -4190,7 +4211,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E116" s="5"/>
     </row>
@@ -4200,7 +4221,7 @@
       <c r="C117" s="6"/>
       <c r="D117" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E117" s="5"/>
     </row>
@@ -4210,7 +4231,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E118" s="5"/>
     </row>
@@ -4220,7 +4241,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E119" s="5"/>
     </row>
@@ -4230,7 +4251,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6">
         <f t="shared" si="5"/>
-        <v>7070.7</v>
+        <v>5240.7</v>
       </c>
       <c r="E120" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -651,6 +651,21 @@
   </si>
   <si>
     <t>2023.2.14</t>
+  </si>
+  <si>
+    <t>付给谈吉贵</t>
+  </si>
+  <si>
+    <t>2023.2.20</t>
+  </si>
+  <si>
+    <t>2023.2.22</t>
+  </si>
+  <si>
+    <t>2023.3.2</t>
+  </si>
+  <si>
+    <t>奖励</t>
   </si>
 </sst>
 </file>
@@ -658,10 +673,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -703,33 +718,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,17 +753,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,6 +784,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -779,15 +801,46 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,47 +855,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -855,7 +870,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,175 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,44 +1107,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1144,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1182,7 +1186,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1195,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,133 +1222,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2186,9 +2201,9 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4105,7 +4120,9 @@
         <f t="shared" si="5"/>
         <v>7040.7</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="1:5">
       <c r="A107" s="5" t="s">
@@ -4119,7 +4136,9 @@
         <f t="shared" si="5"/>
         <v>6040.7</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="1:5">
       <c r="A108" s="5" t="s">
@@ -4133,37 +4152,57 @@
         <f t="shared" si="5"/>
         <v>5240.7</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="1:5">
-      <c r="A109" s="5"/>
+      <c r="A109" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="6">
+        <v>30</v>
+      </c>
       <c r="D109" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
-      </c>
-      <c r="E109" s="5"/>
+        <v>5210.7</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="1:5">
-      <c r="A110" s="5"/>
+      <c r="A110" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="6">
+        <v>500</v>
+      </c>
       <c r="D110" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
-      </c>
-      <c r="E110" s="5"/>
+        <v>4710.7</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="1:5">
-      <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="6">
+        <v>1000</v>
+      </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
-      </c>
-      <c r="E111" s="5"/>
+        <v>5710.7</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="1:5">
       <c r="A112" s="5"/>
@@ -4171,7 +4210,7 @@
       <c r="C112" s="6"/>
       <c r="D112" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E112" s="5"/>
     </row>
@@ -4181,7 +4220,7 @@
       <c r="C113" s="6"/>
       <c r="D113" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E113" s="5"/>
     </row>
@@ -4191,7 +4230,7 @@
       <c r="C114" s="6"/>
       <c r="D114" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E114" s="5"/>
     </row>
@@ -4201,7 +4240,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E115" s="5"/>
     </row>
@@ -4211,7 +4250,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E116" s="5"/>
     </row>
@@ -4221,7 +4260,7 @@
       <c r="C117" s="6"/>
       <c r="D117" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E117" s="5"/>
     </row>
@@ -4231,7 +4270,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E118" s="5"/>
     </row>
@@ -4241,7 +4280,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E119" s="5"/>
     </row>
@@ -4251,7 +4290,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6">
         <f t="shared" si="5"/>
-        <v>5240.7</v>
+        <v>5710.7</v>
       </c>
       <c r="E120" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -666,6 +666,12 @@
   </si>
   <si>
     <t>奖励</t>
+  </si>
+  <si>
+    <t>2023.3.9</t>
+  </si>
+  <si>
+    <t>陈支书转入</t>
   </si>
 </sst>
 </file>
@@ -673,10 +679,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -718,6 +724,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -732,73 +836,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -807,25 +844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,21 +853,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,7 +876,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,25 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,79 +1014,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,55 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,11 +1111,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,26 +1174,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,15 +1200,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1210,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,133 +1228,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2201,9 +2207,9 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4205,22 +4211,32 @@
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="1:5">
-      <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="6">
+        <v>14000</v>
+      </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
-      </c>
-      <c r="E112" s="5"/>
+        <v>19710.7</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="1:5">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="6">
+        <v>30</v>
+      </c>
       <c r="D113" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E113" s="5"/>
     </row>
@@ -4230,7 +4246,7 @@
       <c r="C114" s="6"/>
       <c r="D114" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E114" s="5"/>
     </row>
@@ -4240,7 +4256,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E115" s="5"/>
     </row>
@@ -4250,7 +4266,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E116" s="5"/>
     </row>
@@ -4260,7 +4276,7 @@
       <c r="C117" s="6"/>
       <c r="D117" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E117" s="5"/>
     </row>
@@ -4270,7 +4286,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E118" s="5"/>
     </row>
@@ -4280,7 +4296,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E119" s="5"/>
     </row>
@@ -4290,7 +4306,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6">
         <f t="shared" si="5"/>
-        <v>5710.7</v>
+        <v>19680.7</v>
       </c>
       <c r="E120" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -665,13 +665,25 @@
     <t>2023.3.2</t>
   </si>
   <si>
-    <t>奖励</t>
+    <t>奖励（村集体）</t>
   </si>
   <si>
     <t>2023.3.9</t>
   </si>
   <si>
-    <t>陈支书转入</t>
+    <t>陈支书转入（伙食费+小谈）</t>
+  </si>
+  <si>
+    <t>2023.3.29</t>
+  </si>
+  <si>
+    <t>2023.3.31</t>
+  </si>
+  <si>
+    <t>2023.4.11</t>
+  </si>
+  <si>
+    <t>2023.4.13</t>
   </si>
 </sst>
 </file>
@@ -679,10 +691,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -737,9 +749,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,14 +802,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,14 +849,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -815,14 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,29 +878,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -876,19 +888,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +954,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,121 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,6 +1123,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1128,57 +1149,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,11 +1175,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,10 +1228,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,137 +1240,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,6 +1399,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2207,9 +2222,9 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2218,6 +2233,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="8" max="8" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:5">
@@ -4146,7 +4162,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" ht="21" customHeight="1" spans="1:5">
+    <row r="108" ht="21" customHeight="1" spans="1:8">
       <c r="A108" s="5" t="s">
         <v>210</v>
       </c>
@@ -4161,6 +4177,7 @@
       <c r="E108" s="5" t="s">
         <v>211</v>
       </c>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" ht="21" customHeight="1" spans="1:5">
       <c r="A109" s="5" t="s">
@@ -4238,47 +4255,71 @@
         <f t="shared" si="5"/>
         <v>19680.7</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="1:5">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="6">
+        <v>30</v>
+      </c>
       <c r="D114" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
-      </c>
-      <c r="E114" s="5"/>
+        <v>19650.7</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="1:5">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="6">
+        <v>500</v>
+      </c>
       <c r="D115" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
-      </c>
-      <c r="E115" s="5"/>
+        <v>19150.7</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="1:5">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
-      </c>
-      <c r="E116" s="5"/>
+        <v>19150.7</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="1:5">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
+      <c r="C117" s="6">
+        <v>500</v>
+      </c>
       <c r="D117" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
-      </c>
-      <c r="E117" s="5"/>
+        <v>18650.7</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="118" ht="21" customHeight="1" spans="1:5">
       <c r="A118" s="5"/>
@@ -4286,7 +4327,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
+        <v>18650.7</v>
       </c>
       <c r="E118" s="5"/>
     </row>
@@ -4296,7 +4337,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
+        <v>18650.7</v>
       </c>
       <c r="E119" s="5"/>
     </row>
@@ -4306,7 +4347,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6">
         <f t="shared" si="5"/>
-        <v>19680.7</v>
+        <v>18650.7</v>
       </c>
       <c r="E120" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$130</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -684,6 +684,15 @@
   </si>
   <si>
     <t>2023.4.13</t>
+  </si>
+  <si>
+    <t>2023.5.4</t>
+  </si>
+  <si>
+    <t>2023.5.9</t>
+  </si>
+  <si>
+    <t>垫付农房保险72户*4.8</t>
   </si>
 </sst>
 </file>
@@ -692,9 +701,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -735,49 +744,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -802,6 +768,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -809,18 +782,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,16 +813,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,6 +857,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -888,31 +897,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,25 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,43 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,25 +963,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,37 +1065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,41 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1183,6 +1157,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1200,23 +1213,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,10 +1237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,133 +1249,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2219,12 +2228,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4296,10 +4305,12 @@
         <v>220</v>
       </c>
       <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="6">
+        <v>30</v>
+      </c>
       <c r="D116" s="6">
         <f t="shared" si="5"/>
-        <v>19150.7</v>
+        <v>19120.7</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>146</v>
@@ -4315,41 +4326,153 @@
       </c>
       <c r="D117" s="6">
         <f t="shared" si="5"/>
-        <v>18650.7</v>
+        <v>18620.7</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="118" ht="21" customHeight="1" spans="1:5">
-      <c r="A118" s="5"/>
+      <c r="A118" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="6">
+        <v>30</v>
+      </c>
       <c r="D118" s="6">
         <f t="shared" si="5"/>
-        <v>18650.7</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>18590.7</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="119" ht="21" customHeight="1" spans="1:5">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="6">
+        <v>345.6</v>
+      </c>
       <c r="D119" s="6">
-        <f t="shared" si="5"/>
-        <v>18650.7</v>
-      </c>
-      <c r="E119" s="5"/>
+        <f t="shared" ref="D119:D130" si="6">D118+B119-C119</f>
+        <v>18245.1</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="120" ht="21" customHeight="1" spans="1:5">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6">
-        <f t="shared" si="5"/>
-        <v>18650.7</v>
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
       </c>
       <c r="E120" s="5"/>
+    </row>
+    <row r="121" ht="21" customHeight="1" spans="1:5">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" ht="21" customHeight="1" spans="1:5">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" ht="21" customHeight="1" spans="1:5">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" ht="21" customHeight="1" spans="1:5">
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" ht="21" customHeight="1" spans="1:5">
+      <c r="A125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" ht="21" customHeight="1" spans="1:5">
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" ht="21" customHeight="1" spans="1:5">
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" ht="21" customHeight="1" spans="1:5">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" ht="21" customHeight="1" spans="1:5">
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" ht="21" customHeight="1" spans="1:5">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6">
+        <f t="shared" si="6"/>
+        <v>18245.1</v>
+      </c>
+      <c r="E130" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$136</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -693,6 +693,57 @@
   </si>
   <si>
     <t>垫付农房保险72户*4.8</t>
+  </si>
+  <si>
+    <t>2023.5.16</t>
+  </si>
+  <si>
+    <t>2023.5.19</t>
+  </si>
+  <si>
+    <t>哇哈哈矿泉水1件*30（5月17日科协及法院来买瓶装水）</t>
+  </si>
+  <si>
+    <t>王明州小吃  蒸面6*9+3</t>
+  </si>
+  <si>
+    <t>2023.5.25</t>
+  </si>
+  <si>
+    <t>2023.5.28</t>
+  </si>
+  <si>
+    <t>桶装水*3</t>
+  </si>
+  <si>
+    <t>2023.6.4</t>
+  </si>
+  <si>
+    <t>2023.6.5</t>
+  </si>
+  <si>
+    <t>交污水处理厂电费</t>
+  </si>
+  <si>
+    <t>2023.6.16</t>
+  </si>
+  <si>
+    <t>草帽3*7</t>
+  </si>
+  <si>
+    <t>老湾插秧餐费</t>
+  </si>
+  <si>
+    <t>2023.6.19</t>
+  </si>
+  <si>
+    <t>两个桶押金+2桶水</t>
+  </si>
+  <si>
+    <t>2023.6.30</t>
+  </si>
+  <si>
+    <t>慰问老党员(王主立)</t>
   </si>
 </sst>
 </file>
@@ -700,11 +751,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -744,19 +795,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,8 +846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,6 +863,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -797,11 +878,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,20 +893,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -842,34 +909,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +926,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +948,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +990,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,13 +1056,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,31 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,103 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,16 +1183,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1152,6 +1203,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,15 +1231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1195,16 +1246,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1218,17 +1280,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1237,10 +1288,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,133 +1300,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2228,12 +2279,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2241,7 +2292,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
     <col min="8" max="8" width="12.5"/>
   </cols>
   <sheetData>
@@ -4297,7 +4348,7 @@
         <v>19150.7</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="1:5">
@@ -4365,114 +4416,252 @@
       </c>
     </row>
     <row r="120" ht="21" customHeight="1" spans="1:5">
-      <c r="A120" s="5"/>
+      <c r="A120" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="6">
+        <v>30</v>
+      </c>
       <c r="D120" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E120" s="5"/>
+        <v>18215.1</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="121" ht="21" customHeight="1" spans="1:5">
-      <c r="A121" s="5"/>
+      <c r="A121" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="6">
+        <v>30</v>
+      </c>
       <c r="D121" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E121" s="5"/>
+        <v>18185.1</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="122" ht="21" customHeight="1" spans="1:5">
-      <c r="A122" s="5"/>
+      <c r="A122" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="6">
+        <v>57</v>
+      </c>
       <c r="D122" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E122" s="5"/>
+        <v>18128.1</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="123" ht="21" customHeight="1" spans="1:5">
-      <c r="A123" s="5"/>
+      <c r="A123" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="6">
+        <v>500</v>
+      </c>
       <c r="D123" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E123" s="5"/>
+        <v>17628.1</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="124" ht="21" customHeight="1" spans="1:5">
-      <c r="A124" s="5"/>
+      <c r="A124" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="6">
+        <v>45</v>
+      </c>
       <c r="D124" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E124" s="5"/>
+        <v>17583.1</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="125" ht="21" customHeight="1" spans="1:5">
-      <c r="A125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="6">
+        <v>30</v>
+      </c>
       <c r="D125" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E125" s="5"/>
+        <v>17553.1</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="126" ht="21" customHeight="1" spans="1:5">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="6">
+        <v>1000</v>
+      </c>
       <c r="D126" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E126" s="5"/>
+        <v>16553.1</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="127" ht="21" customHeight="1" spans="1:5">
-      <c r="A127" s="5"/>
+      <c r="A127" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="6">
+        <v>10</v>
+      </c>
       <c r="D127" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E127" s="5"/>
+        <v>16543.1</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="1:5">
-      <c r="A128" s="5"/>
+      <c r="A128" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
+      <c r="C128" s="6">
+        <v>21</v>
+      </c>
       <c r="D128" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E128" s="5"/>
+        <v>16522.1</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="129" ht="21" customHeight="1" spans="1:5">
-      <c r="A129" s="5"/>
+      <c r="A129" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
+      <c r="C129" s="6">
+        <v>162</v>
+      </c>
       <c r="D129" s="6">
         <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E129" s="5"/>
+        <v>16360.1</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="130" ht="21" customHeight="1" spans="1:5">
-      <c r="A130" s="5"/>
+      <c r="A130" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="6">
+        <v>90</v>
+      </c>
       <c r="D130" s="6">
-        <f t="shared" si="6"/>
-        <v>18245.1</v>
-      </c>
-      <c r="E130" s="5"/>
+        <f t="shared" ref="D130:D136" si="7">D129+B130-C130</f>
+        <v>16270.1</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" ht="21" customHeight="1" spans="1:5">
+      <c r="A131" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6">
+        <v>500</v>
+      </c>
+      <c r="D131" s="6">
+        <f t="shared" si="7"/>
+        <v>15770.1</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" ht="21" customHeight="1" spans="1:5">
+      <c r="A132" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6">
+        <v>300</v>
+      </c>
+      <c r="D132" s="6">
+        <f t="shared" si="7"/>
+        <v>15470.1</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" ht="21" customHeight="1" spans="1:5">
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6">
+        <f t="shared" si="7"/>
+        <v>15470.1</v>
+      </c>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" ht="21" customHeight="1" spans="1:5">
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6">
+        <f t="shared" si="7"/>
+        <v>15470.1</v>
+      </c>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" ht="21" customHeight="1" spans="1:5">
+      <c r="A135" s="5"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6">
+        <f t="shared" si="7"/>
+        <v>15470.1</v>
+      </c>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" ht="21" customHeight="1" spans="1:5">
+      <c r="A136" s="5"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6">
+        <f t="shared" si="7"/>
+        <v>15470.1</v>
+      </c>
+      <c r="E136" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$146</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -744,6 +744,18 @@
   </si>
   <si>
     <t>慰问老党员(王主立)</t>
+  </si>
+  <si>
+    <t>2023.7.4</t>
+  </si>
+  <si>
+    <t>2023.7.7</t>
+  </si>
+  <si>
+    <t>2023.7.13</t>
+  </si>
+  <si>
+    <t>1、2季度党费（陈阳安450、刘珍主150、雷兴山150、付先锋150、雷天金170）</t>
   </si>
 </sst>
 </file>
@@ -752,10 +764,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -803,121 +815,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -933,7 +830,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,7 +960,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,25 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,49 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1026,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,73 +1140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,17 +1195,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,15 +1235,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,27 +1269,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1275,8 +1287,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,10 +1300,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,133 +1312,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2279,20 +2291,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96:E110"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="66.75" customWidth="1"/>
     <col min="8" max="8" width="12.5"/>
   </cols>
   <sheetData>
@@ -4624,44 +4637,167 @@
       </c>
     </row>
     <row r="133" ht="21" customHeight="1" spans="1:5">
-      <c r="A133" s="5"/>
+      <c r="A133" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="6">
+        <v>45</v>
+      </c>
       <c r="D133" s="6">
         <f t="shared" si="7"/>
-        <v>15470.1</v>
-      </c>
-      <c r="E133" s="5"/>
+        <v>15425.1</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="134" ht="21" customHeight="1" spans="1:5">
-      <c r="A134" s="5"/>
+      <c r="A134" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="6">
+        <v>1500</v>
+      </c>
       <c r="D134" s="6">
         <f t="shared" si="7"/>
-        <v>15470.1</v>
-      </c>
-      <c r="E134" s="5"/>
+        <v>13925.1</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="135" ht="21" customHeight="1" spans="1:5">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B135" s="6">
+        <f>450+150+150+150+170</f>
+        <v>1070</v>
+      </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6">
         <f t="shared" si="7"/>
-        <v>15470.1</v>
-      </c>
-      <c r="E135" s="5"/>
+        <v>14995.1</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="136" ht="21" customHeight="1" spans="1:5">
-      <c r="A136" s="5"/>
+      <c r="A136" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="6">
+        <v>1446</v>
+      </c>
       <c r="D136" s="6">
-        <f t="shared" si="7"/>
-        <v>15470.1</v>
+        <f t="shared" ref="D136:D145" si="8">D135+B136-C136</f>
+        <v>13549.1</v>
       </c>
       <c r="E136" s="5"/>
+    </row>
+    <row r="137" ht="21" customHeight="1" spans="1:5">
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" ht="21" customHeight="1" spans="1:5">
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" ht="21" customHeight="1" spans="1:5">
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" ht="21" customHeight="1" spans="1:5">
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" ht="21" customHeight="1" spans="1:5">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" ht="21" customHeight="1" spans="1:5">
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" ht="21" customHeight="1" spans="1:5">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" ht="21" customHeight="1" spans="1:5">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" ht="21" customHeight="1" spans="1:5">
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6">
+        <f t="shared" si="8"/>
+        <v>13549.1</v>
+      </c>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" ht="21" customHeight="1" spans="1:5">
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6">
+        <f>D145+B146-C146</f>
+        <v>13549.1</v>
+      </c>
+      <c r="E146" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -755,7 +755,10 @@
     <t>2023.7.13</t>
   </si>
   <si>
-    <t>1、2季度党费（陈阳安450、刘珍主150、雷兴山150、付先锋150、雷天金170）</t>
+    <t>收党费（陈阳安450、刘珍主150、雷兴山150、付先锋150、雷天金170）</t>
+  </si>
+  <si>
+    <t>2023.7.18</t>
   </si>
 </sst>
 </file>
@@ -765,9 +768,9 @@
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -814,8 +817,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,6 +907,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -836,53 +922,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -897,39 +938,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,14 +953,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -960,43 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,19 +981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,25 +1011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,25 +1059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,13 +1083,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,13 +1143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,17 +1198,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,20 +1233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,31 +1263,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1300,10 +1303,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,133 +1315,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2296,7 +2299,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4694,20 +4697,26 @@
         <v>1446</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" ref="D136:D145" si="8">D135+B136-C136</f>
+        <f t="shared" ref="D136:D146" si="8">D135+B136-C136</f>
         <v>13549.1</v>
       </c>
       <c r="E136" s="5"/>
     </row>
     <row r="137" ht="21" customHeight="1" spans="1:5">
-      <c r="A137" s="5"/>
+      <c r="A137" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
+      <c r="C137" s="6">
+        <v>30</v>
+      </c>
       <c r="D137" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
-      </c>
-      <c r="E137" s="5"/>
+        <v>13519.1</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="138" ht="21" customHeight="1" spans="1:5">
       <c r="A138" s="5"/>
@@ -4715,7 +4724,7 @@
       <c r="C138" s="6"/>
       <c r="D138" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E138" s="5"/>
     </row>
@@ -4725,7 +4734,7 @@
       <c r="C139" s="6"/>
       <c r="D139" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E139" s="5"/>
     </row>
@@ -4735,7 +4744,7 @@
       <c r="C140" s="6"/>
       <c r="D140" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E140" s="5"/>
     </row>
@@ -4745,7 +4754,7 @@
       <c r="C141" s="6"/>
       <c r="D141" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E141" s="5"/>
     </row>
@@ -4755,7 +4764,7 @@
       <c r="C142" s="6"/>
       <c r="D142" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E142" s="5"/>
     </row>
@@ -4765,7 +4774,7 @@
       <c r="C143" s="6"/>
       <c r="D143" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E143" s="5"/>
     </row>
@@ -4775,7 +4784,7 @@
       <c r="C144" s="6"/>
       <c r="D144" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E144" s="5"/>
     </row>
@@ -4785,7 +4794,7 @@
       <c r="C145" s="6"/>
       <c r="D145" s="6">
         <f t="shared" si="8"/>
-        <v>13549.1</v>
+        <v>13519.1</v>
       </c>
       <c r="E145" s="5"/>
     </row>
@@ -4794,8 +4803,8 @@
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6">
-        <f>D145+B146-C146</f>
-        <v>13549.1</v>
+        <f t="shared" si="8"/>
+        <v>13519.1</v>
       </c>
       <c r="E146" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -11,14 +11,14 @@
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$157</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -758,7 +758,31 @@
     <t>收党费（陈阳安450、刘珍主150、雷兴山150、付先锋150、雷天金170）</t>
   </si>
   <si>
+    <t>交党费</t>
+  </si>
+  <si>
     <t>2023.7.18</t>
+  </si>
+  <si>
+    <t>2023.7.21</t>
+  </si>
+  <si>
+    <t>2023.8.9</t>
+  </si>
+  <si>
+    <t>2023.8.14</t>
+  </si>
+  <si>
+    <t>2023.8.18</t>
+  </si>
+  <si>
+    <t>毛巾+洗手液</t>
+  </si>
+  <si>
+    <t>蒸面5*4+冰峰*5</t>
+  </si>
+  <si>
+    <t>2023.9.7</t>
   </si>
 </sst>
 </file>
@@ -766,11 +790,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -818,15 +842,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -847,46 +893,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,15 +910,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,11 +947,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -940,17 +965,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -963,7 +987,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,19 +1035,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,55 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,79 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,15 +1222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1224,26 +1239,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,9 +1263,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,11 +1305,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,10 +1327,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,19 +1339,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1336,112 +1360,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2294,12 +2318,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4600,7 +4624,7 @@
         <v>90</v>
       </c>
       <c r="D130" s="6">
-        <f t="shared" ref="D130:D136" si="7">D129+B130-C130</f>
+        <f t="shared" ref="D130:D140" si="7">D129+B130-C130</f>
         <v>16270.1</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -4697,21 +4721,23 @@
         <v>1446</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" ref="D136:D146" si="8">D135+B136-C136</f>
+        <f t="shared" si="7"/>
         <v>13549.1</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="137" ht="21" customHeight="1" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6">
         <v>30</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13519.1</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -4719,82 +4745,124 @@
       </c>
     </row>
     <row r="138" ht="21" customHeight="1" spans="1:5">
-      <c r="A138" s="5"/>
+      <c r="A138" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="6">
+        <v>30</v>
+      </c>
       <c r="D138" s="6">
-        <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E138" s="5"/>
+        <f t="shared" si="7"/>
+        <v>13489.1</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="139" ht="21" customHeight="1" spans="1:5">
-      <c r="A139" s="5"/>
+      <c r="A139" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="6">
+        <v>1000</v>
+      </c>
       <c r="D139" s="6">
-        <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E139" s="5"/>
+        <f t="shared" ref="D139:D147" si="8">D138+B139-C139</f>
+        <v>12489.1</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="140" ht="21" customHeight="1" spans="1:5">
-      <c r="A140" s="5"/>
+      <c r="A140" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="C140" s="6">
+        <v>30</v>
+      </c>
       <c r="D140" s="6">
         <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E140" s="5"/>
+        <v>12459.1</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="141" ht="21" customHeight="1" spans="1:5">
-      <c r="A141" s="5"/>
+      <c r="A141" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="6">
+        <v>1000</v>
+      </c>
       <c r="D141" s="6">
         <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E141" s="5"/>
+        <v>11459.1</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="142" ht="21" customHeight="1" spans="1:5">
-      <c r="A142" s="5"/>
+      <c r="A142" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="6">
+        <v>30.7</v>
+      </c>
       <c r="D142" s="6">
         <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E142" s="5"/>
+        <v>11428.4</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="143" ht="21" customHeight="1" spans="1:5">
-      <c r="A143" s="5"/>
+      <c r="A143" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="6">
+        <v>35</v>
+      </c>
       <c r="D143" s="6">
         <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E143" s="5"/>
+        <v>11393.4</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="144" ht="21" customHeight="1" spans="1:5">
-      <c r="A144" s="5"/>
+      <c r="A144" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="6">
+        <v>30</v>
+      </c>
       <c r="D144" s="6">
         <f t="shared" si="8"/>
-        <v>13519.1</v>
-      </c>
-      <c r="E144" s="5"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="145" ht="21" customHeight="1" spans="1:5">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6">
-        <f t="shared" si="8"/>
-        <v>13519.1</v>
+        <f t="shared" ref="D145:D157" si="9">D144+B145-C145</f>
+        <v>11363.4</v>
       </c>
       <c r="E145" s="5"/>
     </row>
@@ -4803,10 +4871,120 @@
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6">
-        <f t="shared" si="8"/>
-        <v>13519.1</v>
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
       </c>
       <c r="E146" s="5"/>
+    </row>
+    <row r="147" ht="21" customHeight="1" spans="1:5">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" ht="21" customHeight="1" spans="1:5">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" ht="21" customHeight="1" spans="1:5">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" ht="21" customHeight="1" spans="1:5">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" ht="21" customHeight="1" spans="1:5">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" ht="21" customHeight="1" spans="1:5">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" ht="21" customHeight="1" spans="1:5">
+      <c r="A153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" ht="21" customHeight="1" spans="1:5">
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" ht="21" customHeight="1" spans="1:5">
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" ht="21" customHeight="1" spans="1:5">
+      <c r="A156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" ht="21" customHeight="1" spans="1:5">
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6">
+        <f t="shared" si="9"/>
+        <v>11363.4</v>
+      </c>
+      <c r="E157" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -782,7 +782,13 @@
     <t>蒸面5*4+冰峰*5</t>
   </si>
   <si>
+    <t>2023.9.4</t>
+  </si>
+  <si>
     <t>2023.9.7</t>
+  </si>
+  <si>
+    <t>2023.9.13</t>
   </si>
 </sst>
 </file>
@@ -792,8 +798,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
@@ -841,9 +847,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,29 +931,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,40 +945,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,9 +960,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,13 +983,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -987,7 +993,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,31 +1083,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,31 +1149,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,79 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,6 +1228,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1240,23 +1264,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,24 +1277,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,6 +1310,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1327,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,133 +1345,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2323,7 +2329,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2415,7 +2421,7 @@
         <v>1065</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D6:D41" si="0">D5+B6-C6</f>
+        <f>D5+B6-C6</f>
         <v>16135</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2431,7 +2437,7 @@
         <v>500</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f>D6+B7-C7</f>
         <v>15635</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2447,7 +2453,7 @@
         <v>165.3</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D39" si="0">D7+B8-C8</f>
         <v>15469.7</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2962,7 +2968,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D40:D71" si="1">D39+B40-C40</f>
         <v>10532.7</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -2978,7 +2984,7 @@
         <v>180</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10352.7</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -2994,7 +3000,7 @@
         <v>500</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" ref="D42:D53" si="1">D41+B42-C42</f>
+        <f t="shared" si="1"/>
         <v>9852.7</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -3156,7 +3162,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" ref="D52:D76" si="2">D51+B52-C52</f>
+        <f t="shared" si="1"/>
         <v>4510.7</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -3172,7 +3178,7 @@
         <v>500</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4010.7</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -3188,7 +3194,7 @@
         <v>160</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3850.7</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -3204,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3750.7</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -3220,7 +3226,7 @@
         <v>500</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3250.7</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -3236,7 +3242,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3202.7</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -3252,7 +3258,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3192.7</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -3268,7 +3274,7 @@
         <v>500</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2692.7</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -3284,7 +3290,7 @@
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4636.7</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -3300,7 +3306,7 @@
         <v>500</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4136.7</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -3316,7 +3322,7 @@
         <v>200</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3936.7</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -3332,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3916.7</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -3348,7 +3354,7 @@
         <v>30</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3886.7</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -3364,7 +3370,7 @@
         <v>500</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3386.7</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -3380,7 +3386,7 @@
         <v>23</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3363.7</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -3396,7 +3402,7 @@
         <v>30</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3333.7</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -3412,7 +3418,7 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8033.7</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -3437,7 +3443,7 @@
         <v>2000</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6033.7</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -3462,7 +3468,7 @@
         <v>1200</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4833.7</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -3487,7 +3493,7 @@
         <v>500</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4333.7</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -3512,7 +3518,7 @@
         <v>500</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="2"/>
+        <f>D71+B72-C72</f>
         <v>3833.7</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -3537,7 +3543,7 @@
         <v>1000</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="2"/>
+        <f>D72+B73-C73</f>
         <v>2833.7</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -3562,7 +3568,7 @@
         <v>30</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="2"/>
+        <f>D73+B74-C74</f>
         <v>2803.7</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -3587,7 +3593,7 @@
         <v>48</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="2"/>
+        <f>D74+B75-C75</f>
         <v>2755.7</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -3612,7 +3618,7 @@
         <v>50</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" ref="D76:D86" si="3">D75+B76-C76</f>
+        <f>D75+B76-C76</f>
         <v>2705.7</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -3637,7 +3643,7 @@
         <v>30</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="3"/>
+        <f>D76+B77-C77</f>
         <v>2675.7</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -3662,7 +3668,7 @@
         <v>1000</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="3"/>
+        <f>D77+B78-C78</f>
         <v>1675.7</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -3687,7 +3693,7 @@
         <v>500</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="3"/>
+        <f>D78+B79-C79</f>
         <v>1175.7</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -3712,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="3"/>
+        <f>D79+B80-C80</f>
         <v>1165.7</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -3739,7 +3745,7 @@
         <v>500</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="3"/>
+        <f>D80+B81-C81</f>
         <v>1165.7</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -3769,7 +3775,7 @@
         <v>500</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="3"/>
+        <f>D81+B82-C82</f>
         <v>1165.7</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -3797,7 +3803,7 @@
         <v>64</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="3"/>
+        <f>D82+B83-C83</f>
         <v>1101.7</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -3822,8 +3828,8 @@
         <v>500</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="3"/>
-        <v>601.7</v>
+        <f t="shared" ref="D84:D115" si="2">D83+B84-C84</f>
+        <v>601.700000000001</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>163</v>
@@ -3849,8 +3855,8 @@
         <v>500</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" ref="D85:D98" si="4">D84+B85-C85</f>
-        <v>601.7</v>
+        <f t="shared" si="2"/>
+        <v>601.700000000001</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>174</v>
@@ -3874,8 +3880,8 @@
         <v>60</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="4"/>
-        <v>541.7</v>
+        <f t="shared" si="2"/>
+        <v>541.700000000001</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>177</v>
@@ -3899,8 +3905,8 @@
         <v>30</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="4"/>
-        <v>511.7</v>
+        <f t="shared" si="2"/>
+        <v>511.700000000001</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>146</v>
@@ -3924,8 +3930,8 @@
         <v>500</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="2"/>
+        <v>11.7000000000007</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>163</v>
@@ -3949,8 +3955,8 @@
         <v>30</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="4"/>
-        <v>-18.3</v>
+        <f t="shared" si="2"/>
+        <v>-18.2999999999993</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>146</v>
@@ -3974,7 +3980,7 @@
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3426.7</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -3999,7 +4005,7 @@
         <v>500</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2926.7</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -4015,7 +4021,7 @@
         <v>500</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2426.7</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -4031,7 +4037,7 @@
         <v>30</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2396.7</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -4047,7 +4053,7 @@
         <v>500</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1896.7</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -4063,7 +4069,7 @@
         <v>50</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1846.7</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -4079,7 +4085,7 @@
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>35846.7</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -4095,7 +4101,7 @@
         <v>900</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>34946.7</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -4111,7 +4117,7 @@
         <v>20000</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14946.7</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -4127,7 +4133,7 @@
         <v>843</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" ref="D99:D120" si="5">D98+B99-C99</f>
+        <f t="shared" si="2"/>
         <v>14103.7</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -4143,7 +4149,7 @@
         <v>1500</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12603.7</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -4159,7 +4165,7 @@
         <v>1563</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11040.7</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -4175,7 +4181,7 @@
         <v>1780</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9260.7</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -4191,7 +4197,7 @@
         <v>990</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8270.7</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -4207,7 +4213,7 @@
         <v>200</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8070.7</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -4223,7 +4229,7 @@
         <v>1000</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7070.7</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -4239,7 +4245,7 @@
         <v>30</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7040.7</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -4255,7 +4261,7 @@
         <v>1000</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6040.7</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -4271,7 +4277,7 @@
         <v>800</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5240.7</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -4288,7 +4294,7 @@
         <v>30</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5210.7</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -4304,7 +4310,7 @@
         <v>500</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4710.7</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -4320,7 +4326,7 @@
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5710.7</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -4336,7 +4342,7 @@
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19710.7</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -4352,7 +4358,7 @@
         <v>30</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19680.7</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -4368,7 +4374,7 @@
         <v>30</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19650.7</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -4384,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19150.7</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -4400,7 +4406,7 @@
         <v>30</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D116:D146" si="3">D115+B116-C116</f>
         <v>19120.7</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -4416,7 +4422,7 @@
         <v>500</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18620.7</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -4432,7 +4438,7 @@
         <v>30</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18590.7</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -4448,7 +4454,7 @@
         <v>345.6</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" ref="D119:D130" si="6">D118+B119-C119</f>
+        <f t="shared" si="3"/>
         <v>18245.1</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -4464,7 +4470,7 @@
         <v>30</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>18215.1</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -4480,7 +4486,7 @@
         <v>30</v>
       </c>
       <c r="D121" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>18185.1</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -4496,7 +4502,7 @@
         <v>57</v>
       </c>
       <c r="D122" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>18128.1</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -4512,7 +4518,7 @@
         <v>500</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17628.1</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -4528,7 +4534,7 @@
         <v>45</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17583.1</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -4544,7 +4550,7 @@
         <v>30</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17553.1</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -4560,7 +4566,7 @@
         <v>1000</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16553.1</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -4576,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16543.1</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -4592,7 +4598,7 @@
         <v>21</v>
       </c>
       <c r="D128" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16522.1</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -4608,7 +4614,7 @@
         <v>162</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16360.1</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -4624,7 +4630,7 @@
         <v>90</v>
       </c>
       <c r="D130" s="6">
-        <f t="shared" ref="D130:D140" si="7">D129+B130-C130</f>
+        <f t="shared" si="3"/>
         <v>16270.1</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -4640,7 +4646,7 @@
         <v>500</v>
       </c>
       <c r="D131" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>15770.1</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -4656,7 +4662,7 @@
         <v>300</v>
       </c>
       <c r="D132" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>15470.1</v>
       </c>
       <c r="E132" s="5" t="s">
@@ -4672,7 +4678,7 @@
         <v>45</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>15425.1</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -4688,7 +4694,7 @@
         <v>1500</v>
       </c>
       <c r="D134" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13925.1</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -4705,7 +4711,7 @@
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14995.1</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -4721,7 +4727,7 @@
         <v>1446</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13549.1</v>
       </c>
       <c r="E136" s="5" t="s">
@@ -4737,7 +4743,7 @@
         <v>30</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13519.1</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -4753,7 +4759,7 @@
         <v>30</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>13489.1</v>
       </c>
       <c r="E138" s="5" t="s">
@@ -4769,7 +4775,7 @@
         <v>1000</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" ref="D139:D147" si="8">D138+B139-C139</f>
+        <f t="shared" si="3"/>
         <v>12489.1</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -4785,7 +4791,7 @@
         <v>30</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>12459.1</v>
       </c>
       <c r="E140" s="5" t="s">
@@ -4801,7 +4807,7 @@
         <v>1000</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11459.1</v>
       </c>
       <c r="E141" s="5" t="s">
@@ -4817,7 +4823,7 @@
         <v>30.7</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11428.4</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -4833,7 +4839,7 @@
         <v>35</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11393.4</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -4846,43 +4852,55 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6">
+        <v>500</v>
+      </c>
+      <c r="D144" s="6">
+        <f t="shared" si="3"/>
+        <v>10893.4</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" ht="21" customHeight="1" spans="1:5">
+      <c r="A145" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6">
         <v>30</v>
       </c>
-      <c r="D144" s="6">
-        <f t="shared" si="8"/>
-        <v>11363.4</v>
-      </c>
-      <c r="E144" s="5" t="s">
+      <c r="D145" s="6">
+        <f t="shared" si="3"/>
+        <v>10863.4</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="145" ht="21" customHeight="1" spans="1:5">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6">
-        <f t="shared" ref="D145:D157" si="9">D144+B145-C145</f>
-        <v>11363.4</v>
-      </c>
-      <c r="E145" s="5"/>
-    </row>
     <row r="146" ht="21" customHeight="1" spans="1:5">
-      <c r="A146" s="5"/>
+      <c r="A146" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="6">
+        <v>10</v>
+      </c>
       <c r="D146" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
-      </c>
-      <c r="E146" s="5"/>
+        <f t="shared" si="3"/>
+        <v>10853.4</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="147" ht="21" customHeight="1" spans="1:5">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f>D146+B147-C147</f>
+        <v>10853.4</v>
       </c>
       <c r="E147" s="5"/>
     </row>
@@ -4891,8 +4909,8 @@
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f>D147+B148-C148</f>
+        <v>10853.4</v>
       </c>
       <c r="E148" s="5"/>
     </row>
@@ -4901,8 +4919,8 @@
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f>D148+B149-C149</f>
+        <v>10853.4</v>
       </c>
       <c r="E149" s="5"/>
     </row>
@@ -4911,8 +4929,8 @@
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f>D149+B150-C150</f>
+        <v>10853.4</v>
       </c>
       <c r="E150" s="5"/>
     </row>
@@ -4921,8 +4939,8 @@
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" ref="D146:D157" si="4">D150+B151-C151</f>
+        <v>10853.4</v>
       </c>
       <c r="E151" s="5"/>
     </row>
@@ -4931,8 +4949,8 @@
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" si="4"/>
+        <v>10853.4</v>
       </c>
       <c r="E152" s="5"/>
     </row>
@@ -4941,8 +4959,8 @@
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" si="4"/>
+        <v>10853.4</v>
       </c>
       <c r="E153" s="5"/>
     </row>
@@ -4951,8 +4969,8 @@
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" si="4"/>
+        <v>10853.4</v>
       </c>
       <c r="E154" s="5"/>
     </row>
@@ -4961,8 +4979,8 @@
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" si="4"/>
+        <v>10853.4</v>
       </c>
       <c r="E155" s="5"/>
     </row>
@@ -4971,8 +4989,8 @@
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" si="4"/>
+        <v>10853.4</v>
       </c>
       <c r="E156" s="5"/>
     </row>
@@ -4981,8 +4999,8 @@
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
-        <f t="shared" si="9"/>
-        <v>11363.4</v>
+        <f t="shared" si="4"/>
+        <v>10853.4</v>
       </c>
       <c r="E157" s="5"/>
     </row>

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -11,14 +11,14 @@
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$1:$E$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$3:$I$158</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -584,7 +584,7 @@
     <t>2023.1.6</t>
   </si>
   <si>
-    <t>火炮（元宵节付先丰经手购买）</t>
+    <t>火炮（元宵节付先锋经手购买）</t>
   </si>
   <si>
     <t>2023.1.10</t>
@@ -789,6 +789,24 @@
   </si>
   <si>
     <t>2023.9.13</t>
+  </si>
+  <si>
+    <t>2023.9.18</t>
+  </si>
+  <si>
+    <t>桶装水*1</t>
+  </si>
+  <si>
+    <t>2023.10.8</t>
+  </si>
+  <si>
+    <t>2023.10.10</t>
+  </si>
+  <si>
+    <t>污水处理厂电费报销</t>
+  </si>
+  <si>
+    <t>2023.10.11</t>
   </si>
 </sst>
 </file>
@@ -796,9 +814,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
@@ -848,7 +866,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,11 +886,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,23 +917,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,6 +943,22 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,24 +979,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,23 +996,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,49 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,37 +1053,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,7 +1089,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,55 +1179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,8 +1249,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,6 +1275,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,26 +1318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1296,32 +1333,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,10 +1351,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,130 +1363,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2324,12 +2342,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2968,7 +2986,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6">
-        <f t="shared" ref="D40:D71" si="1">D39+B40-C40</f>
+        <f t="shared" ref="D40:D83" si="1">D39+B40-C40</f>
         <v>10532.7</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -3518,7 +3536,7 @@
         <v>500</v>
       </c>
       <c r="D72" s="6">
-        <f>D71+B72-C72</f>
+        <f t="shared" si="1"/>
         <v>3833.7</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -3543,7 +3561,7 @@
         <v>1000</v>
       </c>
       <c r="D73" s="6">
-        <f>D72+B73-C73</f>
+        <f t="shared" si="1"/>
         <v>2833.7</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -3568,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="D74" s="6">
-        <f>D73+B74-C74</f>
+        <f t="shared" si="1"/>
         <v>2803.7</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -3593,7 +3611,7 @@
         <v>48</v>
       </c>
       <c r="D75" s="6">
-        <f>D74+B75-C75</f>
+        <f t="shared" si="1"/>
         <v>2755.7</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -3618,7 +3636,7 @@
         <v>50</v>
       </c>
       <c r="D76" s="6">
-        <f>D75+B76-C76</f>
+        <f t="shared" si="1"/>
         <v>2705.7</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -3643,7 +3661,7 @@
         <v>30</v>
       </c>
       <c r="D77" s="6">
-        <f>D76+B77-C77</f>
+        <f t="shared" si="1"/>
         <v>2675.7</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -3668,7 +3686,7 @@
         <v>1000</v>
       </c>
       <c r="D78" s="6">
-        <f>D77+B78-C78</f>
+        <f t="shared" si="1"/>
         <v>1675.7</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -3693,7 +3711,7 @@
         <v>500</v>
       </c>
       <c r="D79" s="6">
-        <f>D78+B79-C79</f>
+        <f t="shared" si="1"/>
         <v>1175.7</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -3718,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="6">
-        <f>D79+B80-C80</f>
+        <f t="shared" si="1"/>
         <v>1165.7</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -3745,7 +3763,7 @@
         <v>500</v>
       </c>
       <c r="D81" s="6">
-        <f>D80+B81-C81</f>
+        <f t="shared" si="1"/>
         <v>1165.7</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -3775,7 +3793,7 @@
         <v>500</v>
       </c>
       <c r="D82" s="6">
-        <f>D81+B82-C82</f>
+        <f t="shared" si="1"/>
         <v>1165.7</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -3803,7 +3821,7 @@
         <v>64</v>
       </c>
       <c r="D83" s="6">
-        <f>D82+B83-C83</f>
+        <f t="shared" si="1"/>
         <v>1101.7</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -4406,7 +4424,7 @@
         <v>30</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" ref="D116:D146" si="3">D115+B116-C116</f>
+        <f t="shared" ref="D116:D150" si="3">D115+B116-C116</f>
         <v>19120.7</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -4895,52 +4913,76 @@
       </c>
     </row>
     <row r="147" ht="21" customHeight="1" spans="1:5">
-      <c r="A147" s="5"/>
+      <c r="A147" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="6">
+        <v>15</v>
+      </c>
       <c r="D147" s="6">
-        <f>D146+B147-C147</f>
-        <v>10853.4</v>
-      </c>
-      <c r="E147" s="5"/>
+        <f t="shared" si="3"/>
+        <v>10838.4</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="148" ht="21" customHeight="1" spans="1:5">
-      <c r="A148" s="5"/>
+      <c r="A148" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="C148" s="6">
+        <v>30</v>
+      </c>
       <c r="D148" s="6">
-        <f>D147+B148-C148</f>
-        <v>10853.4</v>
-      </c>
-      <c r="E148" s="5"/>
+        <f t="shared" si="3"/>
+        <v>10808.4</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="149" ht="21" customHeight="1" spans="1:5">
-      <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B149" s="6">
+        <v>3500</v>
+      </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6">
-        <f>D148+B149-C149</f>
-        <v>10853.4</v>
-      </c>
-      <c r="E149" s="5"/>
+        <f t="shared" ref="D149:D158" si="4">D148+B149-C149</f>
+        <v>14308.4</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="150" ht="21" customHeight="1" spans="1:5">
-      <c r="A150" s="5"/>
+      <c r="A150" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="6">
+        <v>30</v>
+      </c>
       <c r="D150" s="6">
-        <f>D149+B150-C150</f>
-        <v>10853.4</v>
-      </c>
-      <c r="E150" s="5"/>
+        <f t="shared" si="4"/>
+        <v>14278.4</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="151" ht="21" customHeight="1" spans="1:5">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6">
-        <f t="shared" ref="D146:D157" si="4">D150+B151-C151</f>
-        <v>10853.4</v>
+        <f t="shared" si="4"/>
+        <v>14278.4</v>
       </c>
       <c r="E151" s="5"/>
     </row>
@@ -4950,7 +4992,7 @@
       <c r="C152" s="6"/>
       <c r="D152" s="6">
         <f t="shared" si="4"/>
-        <v>10853.4</v>
+        <v>14278.4</v>
       </c>
       <c r="E152" s="5"/>
     </row>
@@ -4960,7 +5002,7 @@
       <c r="C153" s="6"/>
       <c r="D153" s="6">
         <f t="shared" si="4"/>
-        <v>10853.4</v>
+        <v>14278.4</v>
       </c>
       <c r="E153" s="5"/>
     </row>
@@ -4970,7 +5012,7 @@
       <c r="C154" s="6"/>
       <c r="D154" s="6">
         <f t="shared" si="4"/>
-        <v>10853.4</v>
+        <v>14278.4</v>
       </c>
       <c r="E154" s="5"/>
     </row>
@@ -4980,7 +5022,7 @@
       <c r="C155" s="6"/>
       <c r="D155" s="6">
         <f t="shared" si="4"/>
-        <v>10853.4</v>
+        <v>14278.4</v>
       </c>
       <c r="E155" s="5"/>
     </row>
@@ -4990,7 +5032,7 @@
       <c r="C156" s="6"/>
       <c r="D156" s="6">
         <f t="shared" si="4"/>
-        <v>10853.4</v>
+        <v>14278.4</v>
       </c>
       <c r="E156" s="5"/>
     </row>
@@ -5000,9 +5042,19 @@
       <c r="C157" s="6"/>
       <c r="D157" s="6">
         <f t="shared" si="4"/>
-        <v>10853.4</v>
+        <v>14278.4</v>
       </c>
       <c r="E157" s="5"/>
+    </row>
+    <row r="158" ht="21" customHeight="1" spans="1:5">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6">
+        <f t="shared" si="4"/>
+        <v>14278.4</v>
+      </c>
+      <c r="E158" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/日记账.xlsx
+++ b/日记账.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="18000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$3:$I$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'18000'!$A$3:$I$168</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
   <si>
     <t>爱心超市流水账</t>
   </si>
@@ -807,6 +807,36 @@
   </si>
   <si>
     <t>2023.10.11</t>
+  </si>
+  <si>
+    <t>2023.10.17</t>
+  </si>
+  <si>
+    <t>垫付农房保险300户*4.8</t>
+  </si>
+  <si>
+    <t>餐费（天云农家乐）</t>
+  </si>
+  <si>
+    <t>2023.10.23</t>
+  </si>
+  <si>
+    <t>2023.10.26</t>
+  </si>
+  <si>
+    <t>付先锋修打印机支取</t>
+  </si>
+  <si>
+    <t>2023.11.6</t>
+  </si>
+  <si>
+    <t>一次性水杯1一件</t>
+  </si>
+  <si>
+    <t>2023.11.8</t>
+  </si>
+  <si>
+    <t>付孙义强拆牌匾</t>
   </si>
 </sst>
 </file>
@@ -865,8 +895,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,14 +918,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +926,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,21 +1016,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -955,52 +1031,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1011,13 +1041,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,31 +1089,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,13 +1125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,36 +1155,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1131,7 +1167,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,55 +1215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,15 +1276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1272,9 +1293,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,6 +1331,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,43 +1365,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,10 +1381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,133 +1393,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2342,12 +2372,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4977,84 +5007,238 @@
       </c>
     </row>
     <row r="151" ht="21" customHeight="1" spans="1:5">
-      <c r="A151" s="5"/>
+      <c r="A151" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="C151" s="6">
+        <v>1440</v>
+      </c>
       <c r="D151" s="6">
         <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E151" s="5"/>
+        <v>12838.4</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="152" ht="21" customHeight="1" spans="1:5">
-      <c r="A152" s="5"/>
+      <c r="A152" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
+      <c r="C152" s="6">
+        <v>340</v>
+      </c>
       <c r="D152" s="6">
         <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E152" s="5"/>
+        <v>12498.4</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="153" ht="21" customHeight="1" spans="1:5">
-      <c r="A153" s="5"/>
+      <c r="A153" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
+      <c r="C153" s="6">
+        <v>15</v>
+      </c>
       <c r="D153" s="6">
         <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E153" s="5"/>
+        <v>12483.4</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="154" ht="21" customHeight="1" spans="1:5">
-      <c r="A154" s="5"/>
+      <c r="A154" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
+      <c r="C154" s="6">
+        <v>30</v>
+      </c>
       <c r="D154" s="6">
         <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E154" s="5"/>
+        <v>12453.4</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="155" ht="21" customHeight="1" spans="1:5">
-      <c r="A155" s="5"/>
+      <c r="A155" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+      <c r="C155" s="6">
+        <v>600</v>
+      </c>
       <c r="D155" s="6">
         <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E155" s="5"/>
+        <v>11853.4</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="156" ht="21" customHeight="1" spans="1:5">
-      <c r="A156" s="5"/>
+      <c r="A156" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
+      <c r="C156" s="6">
+        <v>500</v>
+      </c>
       <c r="D156" s="6">
         <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E156" s="5"/>
+        <v>11353.4</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="157" ht="21" customHeight="1" spans="1:5">
-      <c r="A157" s="5"/>
+      <c r="A157" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
+      <c r="C157" s="6">
+        <v>70</v>
+      </c>
       <c r="D157" s="6">
-        <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E157" s="5"/>
+        <f t="shared" ref="D157:D168" si="5">D156+B157-C157</f>
+        <v>11283.4</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="158" ht="21" customHeight="1" spans="1:5">
-      <c r="A158" s="5"/>
+      <c r="A158" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
+      <c r="C158" s="6">
+        <v>30</v>
+      </c>
       <c r="D158" s="6">
-        <f t="shared" si="4"/>
-        <v>14278.4</v>
-      </c>
-      <c r="E158" s="5"/>
+        <f t="shared" si="5"/>
+        <v>11253.4</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" ht="21" customHeight="1" spans="1:5">
+      <c r="A159" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6">
+        <v>100</v>
+      </c>
+      <c r="D159" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160" ht="21" customHeight="1" spans="1:5">
+      <c r="A160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" ht="21" customHeight="1" spans="1:5">
+      <c r="A161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" ht="21" customHeight="1" spans="1:5">
+      <c r="A162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" ht="21" customHeight="1" spans="1:5">
+      <c r="A163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" ht="21" customHeight="1" spans="1:5">
+      <c r="A164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" ht="21" customHeight="1" spans="1:5">
+      <c r="A165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" ht="21" customHeight="1" spans="1:5">
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" ht="21" customHeight="1" spans="1:5">
+      <c r="A167" s="5"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" ht="21" customHeight="1" spans="1:5">
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6">
+        <f t="shared" si="5"/>
+        <v>11153.4</v>
+      </c>
+      <c r="E168" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
